--- a/PythonResources/Data/Consumption/Sympheny/futu_1800_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1800_coo.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.6570681993891229</v>
+        <v>0.6570681993891228</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -359,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.5919185074947058</v>
+        <v>0.5919185074947056</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.6364887510543231</v>
+        <v>0.636488751054323</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.3454897246363135</v>
+        <v>0.3454897246363134</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.6404598636281844</v>
+        <v>0.6404598636281843</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1.972136564070312</v>
+        <v>1.972136564070311</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.7318394134827918</v>
+        <v>0.7318394134827917</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.4305301479246761</v>
+        <v>0.430530147924676</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -783,7 +783,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.7810929322402175</v>
+        <v>0.7810929322402174</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.6716865827975507</v>
+        <v>0.6716865827975506</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -967,7 +967,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.804987014022277</v>
+        <v>0.8049870140222769</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3.224426181559854</v>
+        <v>3.224426181559853</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.806420131401331</v>
+        <v>0.8064201314013308</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>0.847725563590261</v>
+        <v>0.8477255635902609</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>0.7483979271671578</v>
+        <v>0.7483979271671577</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>0.6742978457520233</v>
+        <v>0.6742978457520232</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>0.4964711316234788</v>
+        <v>0.4964711316234787</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>0.6757895773388095</v>
+        <v>0.6757895773388094</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>0.630879371374345</v>
+        <v>0.6308793713743449</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>2.002363910997843</v>
+        <v>2.002363910997842</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>0.4139130200325778</v>
+        <v>0.4139130200325777</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2087,7 +2087,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>0.5520960147614021</v>
+        <v>0.552096014761402</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>0.2834196232161499</v>
+        <v>0.2834196232161498</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>0.2588614424604838</v>
+        <v>0.2588614424604837</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>1.091156229723148</v>
+        <v>1.091156229723147</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>1.392031750144045</v>
+        <v>1.392031750144044</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>0.7645021807415988</v>
+        <v>0.7645021807415987</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>1.414973351050455</v>
+        <v>1.414973351050454</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>0.1061925324327065</v>
+        <v>0.1061925324327064</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2751,7 +2751,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>3.744070440210285</v>
+        <v>3.744070440210284</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>1.778815184127742</v>
+        <v>1.778815184127741</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2823,7 +2823,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>5.221851845556253</v>
+        <v>5.221851845556252</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>1.518585686058787</v>
+        <v>1.518585686058786</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2911,7 +2911,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>0.8275534839992006</v>
+        <v>0.8275534839992005</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3039,7 +3039,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>1.586443354350435</v>
+        <v>1.586443354350434</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>7.443213090193785</v>
+        <v>7.443213090193784</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>1.004102408399182</v>
+        <v>1.004102408399181</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>2.561587413419489</v>
+        <v>2.561587413419488</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>0.766547816591455</v>
+        <v>0.7665478165914549</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>431</v>
       </c>
       <c r="B431">
-        <v>1.788436706326994</v>
+        <v>1.788436706326993</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>0.4923241764264208</v>
+        <v>0.4923241764264207</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>0.2553697941058725</v>
+        <v>0.2553697941058724</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>508</v>
       </c>
       <c r="B508">
-        <v>0.4985431438668145</v>
+        <v>0.4985431438668144</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>0.4682014992342054</v>
+        <v>0.4682014992342053</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4615,7 +4615,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>0.6163987313540878</v>
+        <v>0.6163987313540877</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>0.7079130938864796</v>
+        <v>0.7079130938864795</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>0.5110309008241745</v>
+        <v>0.5110309008241744</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>0.8166717563337048</v>
+        <v>0.8166717563337047</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5263,7 +5263,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>0.7154450195800761</v>
+        <v>0.715445019580076</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5311,7 +5311,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>8.594806429509676</v>
+        <v>8.594806429509674</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>3.803681089474003</v>
+        <v>3.803681089474002</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>0.744204080603914</v>
+        <v>0.7442040806039139</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>0.4853783928101469</v>
+        <v>0.4853783928101468</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>5.776547400430581</v>
+        <v>5.77654740043058</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>2.533892200265992</v>
+        <v>2.533892200265991</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>0.8697117529106351</v>
+        <v>0.869711752910635</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>5.410941279700553</v>
+        <v>5.410941279700552</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6143,7 +6143,7 @@
         <v>725</v>
       </c>
       <c r="B725">
-        <v>0.9839508437808276</v>
+        <v>0.9839508437808274</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>4.993842577477726</v>
+        <v>4.993842577477725</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6703,7 +6703,7 @@
         <v>795</v>
       </c>
       <c r="B795">
-        <v>0.5751284676897973</v>
+        <v>0.5751284676897972</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>817</v>
       </c>
       <c r="B817">
-        <v>0.7972704535743238</v>
+        <v>0.7972704535743237</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>0.4847072601316124</v>
+        <v>0.4847072601316123</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6903,7 +6903,7 @@
         <v>820</v>
       </c>
       <c r="B820">
-        <v>0.4239917330521415</v>
+        <v>0.4239917330521414</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>0.7377975476987769</v>
+        <v>0.7377975476987768</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>844</v>
       </c>
       <c r="B844">
-        <v>0.667650994595184</v>
+        <v>0.6676509945951838</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7359,7 +7359,7 @@
         <v>877</v>
       </c>
       <c r="B877">
-        <v>5.039327202677967</v>
+        <v>5.039327202677966</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>0.954007775760798</v>
+        <v>0.9540077757607978</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>1.230784064672573</v>
+        <v>1.230784064672572</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>0.6396392647199326</v>
+        <v>0.6396392647199325</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>0.9024067579836949</v>
+        <v>0.9024067579836946</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>2.054551070852269</v>
+        <v>2.054551070852268</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>0.6302404765100632</v>
+        <v>0.6302404765100631</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>5.347374171414907</v>
+        <v>5.347374171414906</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8727,7 +8727,7 @@
         <v>1048</v>
       </c>
       <c r="B1048">
-        <v>7.529698353702749</v>
+        <v>7.529698353702748</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>8.12023649660536</v>
+        <v>8.120236496605358</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>0.8386432921021459</v>
+        <v>0.8386432921021458</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8975,7 +8975,7 @@
         <v>1079</v>
       </c>
       <c r="B1079">
-        <v>7.730012408627778</v>
+        <v>7.730012408627777</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -9207,7 +9207,7 @@
         <v>1108</v>
       </c>
       <c r="B1108">
-        <v>0.9044963544893502</v>
+        <v>0.90449635448935</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>0.814335980155574</v>
+        <v>0.8143359801555738</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>0.7404498405986621</v>
+        <v>0.740449840598662</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>0.8668865480979397</v>
+        <v>0.8668865480979396</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>0.0953802626033735</v>
+        <v>0.0953802626033734</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9511,7 +9511,7 @@
         <v>1146</v>
       </c>
       <c r="B1146">
-        <v>0.2437539234885301</v>
+        <v>0.24375392348853</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>2.33058589003623</v>
+        <v>2.330585890036229</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>1159</v>
       </c>
       <c r="B1159">
-        <v>1.171015157047978</v>
+        <v>1.171015157047977</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>1.068563383352745</v>
+        <v>1.068563383352744</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9823,7 +9823,7 @@
         <v>1185</v>
       </c>
       <c r="B1185">
-        <v>0.8943443737101212</v>
+        <v>0.8943443737101211</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -9839,7 +9839,7 @@
         <v>1187</v>
       </c>
       <c r="B1187">
-        <v>0.6078879483913624</v>
+        <v>0.6078879483913623</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
@@ -9903,7 +9903,7 @@
         <v>1195</v>
       </c>
       <c r="B1195">
-        <v>4.48597977458148</v>
+        <v>4.485979774581479</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -9975,7 +9975,7 @@
         <v>1204</v>
       </c>
       <c r="B1204">
-        <v>0.8964251780846167</v>
+        <v>0.8964251780846166</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>0.8280341205026052</v>
+        <v>0.8280341205026051</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10159,7 +10159,7 @@
         <v>1227</v>
       </c>
       <c r="B1227">
-        <v>0.9585327925977291</v>
+        <v>0.9585327925977288</v>
       </c>
     </row>
     <row r="1228" spans="1:2">
@@ -10367,7 +10367,7 @@
         <v>1253</v>
       </c>
       <c r="B1253">
-        <v>0.5809254128345187</v>
+        <v>0.5809254128345186</v>
       </c>
     </row>
     <row r="1254" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>0.725605792490465</v>
+        <v>0.7256057924904649</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10519,7 +10519,7 @@
         <v>1272</v>
       </c>
       <c r="B1272">
-        <v>1.584403579921352</v>
+        <v>1.584403579921351</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>0.612553639326851</v>
+        <v>0.6125536393268509</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>1299</v>
       </c>
       <c r="B1299">
-        <v>0.7228069640712492</v>
+        <v>0.7228069640712491</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>0.6427809862543823</v>
+        <v>0.6427809862543822</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>2.015033371999173</v>
+        <v>2.015033371999172</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>1.103090082417438</v>
+        <v>1.103090082417437</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>0.8414450512317484</v>
+        <v>0.8414450512317483</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11135,7 +11135,7 @@
         <v>1349</v>
       </c>
       <c r="B1349">
-        <v>1.164259869606834</v>
+        <v>1.164259869606833</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>2.043950691383888</v>
+        <v>2.043950691383887</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11287,7 +11287,7 @@
         <v>1368</v>
       </c>
       <c r="B1368">
-        <v>4.709211984729827</v>
+        <v>4.709211984729826</v>
       </c>
     </row>
     <row r="1369" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>22.8580170461839</v>
+        <v>22.85801704618389</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11487,7 +11487,7 @@
         <v>1393</v>
       </c>
       <c r="B1393">
-        <v>2.043516946246669</v>
+        <v>2.043516946246668</v>
       </c>
     </row>
     <row r="1394" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>0.3128533337709861</v>
+        <v>0.312853333770986</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>0.3469199113049809</v>
+        <v>0.3469199113049808</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>0.7943456046084836</v>
+        <v>0.7943456046084835</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>0.6142944812964994</v>
+        <v>0.6142944812964993</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11871,7 +11871,7 @@
         <v>1441</v>
       </c>
       <c r="B1441">
-        <v>0.8242798804973533</v>
+        <v>0.8242798804973532</v>
       </c>
     </row>
     <row r="1442" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>0.6224594404336046</v>
+        <v>0.6224594404336045</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>3.194415707200932</v>
+        <v>3.194415707200931</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>0.5207520671765713</v>
+        <v>0.5207520671765712</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>0.4764104190271097</v>
+        <v>0.4764104190271096</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>0.59149941590942</v>
+        <v>0.5914994159094199</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>0.7344506764372645</v>
+        <v>0.7344506764372644</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>7.960131788184666</v>
+        <v>7.960131788184665</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>0.9108120353725022</v>
+        <v>0.910812035372502</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>0.7600680159266526</v>
+        <v>0.7600680159266525</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12423,7 +12423,7 @@
         <v>1510</v>
       </c>
       <c r="B1510">
-        <v>4.151615026572752</v>
+        <v>4.151615026572751</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -12447,7 +12447,7 @@
         <v>1513</v>
       </c>
       <c r="B1513">
-        <v>1.52227838114592</v>
+        <v>1.522278381145919</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>3.098815934389601</v>
+        <v>3.0988159343896</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>1.681160983335395</v>
+        <v>1.681160983335394</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>0.7888007005570109</v>
+        <v>0.7888007005570108</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>2.332291563481239</v>
+        <v>2.332291563481238</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13191,7 +13191,7 @@
         <v>1606</v>
       </c>
       <c r="B1606">
-        <v>4.610153973662293</v>
+        <v>4.610153973662292</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
@@ -13287,7 +13287,7 @@
         <v>1618</v>
       </c>
       <c r="B1618">
-        <v>0.6898452643530076</v>
+        <v>0.6898452643530075</v>
       </c>
     </row>
     <row r="1619" spans="1:2">
@@ -13615,7 +13615,7 @@
         <v>1659</v>
       </c>
       <c r="B1659">
-        <v>1.447674217544288</v>
+        <v>1.447674217544287</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -13767,7 +13767,7 @@
         <v>1678</v>
       </c>
       <c r="B1678">
-        <v>7.972968299678033</v>
+        <v>7.972968299678032</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
@@ -13791,7 +13791,7 @@
         <v>1681</v>
       </c>
       <c r="B1681">
-        <v>1.923694852089978</v>
+        <v>1.923694852089977</v>
       </c>
     </row>
     <row r="1682" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>1.530346626840267</v>
+        <v>1.530346626840266</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>8.033751233096396</v>
+        <v>8.033751233096394</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>4.253779590650097</v>
+        <v>4.253779590650096</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14327,7 +14327,7 @@
         <v>1748</v>
       </c>
       <c r="B1748">
-        <v>52.72260064206004</v>
+        <v>52.72260064206003</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14511,7 +14511,7 @@
         <v>1771</v>
       </c>
       <c r="B1771">
-        <v>58.01399824509063</v>
+        <v>58.01399824509062</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -14663,7 +14663,7 @@
         <v>1790</v>
       </c>
       <c r="B1790">
-        <v>5.410560287350292</v>
+        <v>5.410560287350291</v>
       </c>
     </row>
     <row r="1791" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>1.37374997875235</v>
+        <v>1.373749978752349</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>0.8507822945234987</v>
+        <v>0.8507822945234986</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>0.7562463695825087</v>
+        <v>0.7562463695825086</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14831,7 +14831,7 @@
         <v>1811</v>
       </c>
       <c r="B1811">
-        <v>0.3473800328356792</v>
+        <v>0.3473800328356791</v>
       </c>
     </row>
     <row r="1812" spans="1:2">
@@ -14879,7 +14879,7 @@
         <v>1817</v>
       </c>
       <c r="B1817">
-        <v>6.930104315705502</v>
+        <v>6.930104315705501</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
@@ -14911,7 +14911,7 @@
         <v>1821</v>
       </c>
       <c r="B1821">
-        <v>9.837896547095641</v>
+        <v>9.837896547095635</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -15039,7 +15039,7 @@
         <v>1837</v>
       </c>
       <c r="B1837">
-        <v>6.820759511180954</v>
+        <v>6.820759511180953</v>
       </c>
     </row>
     <row r="1838" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>53.13260702514726</v>
+        <v>53.13260702514725</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>19.62673300231937</v>
+        <v>19.62673300231936</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>61.12758495982876</v>
+        <v>61.12758495982875</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>4.815889842802557</v>
+        <v>4.815889842802556</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>1.935203751778209</v>
+        <v>1.935203751778208</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>1.927167743898115</v>
+        <v>1.927167743898114</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15399,7 +15399,7 @@
         <v>1882</v>
       </c>
       <c r="B1882">
-        <v>0.8387751740695435</v>
+        <v>0.8387751740695434</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15535,7 +15535,7 @@
         <v>1899</v>
       </c>
       <c r="B1899">
-        <v>1.518585686058787</v>
+        <v>1.518585686058786</v>
       </c>
     </row>
     <row r="1900" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>1.528822657439228</v>
+        <v>1.528822657439227</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>46.77911997800796</v>
+        <v>46.77911997800795</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -15863,7 +15863,7 @@
         <v>1940</v>
       </c>
       <c r="B1940">
-        <v>36.00231174435297</v>
+        <v>36.00231174435296</v>
       </c>
     </row>
     <row r="1941" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>0.6890744875213283</v>
+        <v>0.6890744875213282</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>0.0584796881255235</v>
+        <v>0.0584796881255234</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>3.86458125130783</v>
+        <v>3.864581251307829</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>28.16251492464265</v>
+        <v>28.16251492464264</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16063,7 +16063,7 @@
         <v>1965</v>
       </c>
       <c r="B1965">
-        <v>23.84452346942185</v>
+        <v>23.84452346942184</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -16175,7 +16175,7 @@
         <v>1979</v>
       </c>
       <c r="B1979">
-        <v>0.2835673310196352</v>
+        <v>0.2835673310196351</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>1.646065726455699</v>
+        <v>1.646065726455698</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16359,7 +16359,7 @@
         <v>2002</v>
       </c>
       <c r="B2002">
-        <v>2.305657267487696</v>
+        <v>2.305657267487695</v>
       </c>
     </row>
     <row r="2003" spans="1:2">
@@ -16583,7 +16583,7 @@
         <v>2030</v>
       </c>
       <c r="B2030">
-        <v>0.5860014032241332</v>
+        <v>0.5860014032241331</v>
       </c>
     </row>
     <row r="2031" spans="1:2">
@@ -16615,7 +16615,7 @@
         <v>2034</v>
       </c>
       <c r="B2034">
-        <v>29.73557372465742</v>
+        <v>29.73557372465741</v>
       </c>
     </row>
     <row r="2035" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>2.079725873073278</v>
+        <v>2.079725873073277</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>0.8708488685406411</v>
+        <v>0.870848868540641</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16783,7 +16783,7 @@
         <v>2055</v>
       </c>
       <c r="B2055">
-        <v>3.209069259133999</v>
+        <v>3.209069259133998</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -16863,7 +16863,7 @@
         <v>2065</v>
       </c>
       <c r="B2065">
-        <v>4.348646685864774</v>
+        <v>4.348646685864773</v>
       </c>
     </row>
     <row r="2066" spans="1:2">
@@ -16943,7 +16943,7 @@
         <v>2075</v>
       </c>
       <c r="B2075">
-        <v>0.5878360279261532</v>
+        <v>0.5878360279261531</v>
       </c>
     </row>
     <row r="2076" spans="1:2">
@@ -17039,7 +17039,7 @@
         <v>2087</v>
       </c>
       <c r="B2087">
-        <v>7.99239890954128</v>
+        <v>7.992398909541279</v>
       </c>
     </row>
     <row r="2088" spans="1:2">
@@ -17111,7 +17111,7 @@
         <v>2096</v>
       </c>
       <c r="B2096">
-        <v>0.7255647625450524</v>
+        <v>0.7255647625450523</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>0.6892649836964582</v>
+        <v>0.6892649836964581</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>0.7811749921310427</v>
+        <v>0.7811749921310426</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17415,7 +17415,7 @@
         <v>2134</v>
       </c>
       <c r="B2134">
-        <v>25.72445695401892</v>
+        <v>25.72445695401891</v>
       </c>
     </row>
     <row r="2135" spans="1:2">
@@ -17575,7 +17575,7 @@
         <v>2154</v>
       </c>
       <c r="B2154">
-        <v>37.19452472962732</v>
+        <v>37.19452472962731</v>
       </c>
     </row>
     <row r="2155" spans="1:2">
@@ -17591,7 +17591,7 @@
         <v>2156</v>
       </c>
       <c r="B2156">
-        <v>25.42168526397788</v>
+        <v>25.42168526397787</v>
       </c>
     </row>
     <row r="2157" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>36.02517128536855</v>
+        <v>36.02517128536854</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -17759,7 +17759,7 @@
         <v>2177</v>
       </c>
       <c r="B2177">
-        <v>45.61709330971572</v>
+        <v>45.61709330971571</v>
       </c>
     </row>
     <row r="2178" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>62.32448708172169</v>
+        <v>62.32448708172168</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -17823,7 +17823,7 @@
         <v>2185</v>
       </c>
       <c r="B2185">
-        <v>7.109756862404907</v>
+        <v>7.109756862404906</v>
       </c>
     </row>
     <row r="2186" spans="1:2">
@@ -17927,7 +17927,7 @@
         <v>2198</v>
       </c>
       <c r="B2198">
-        <v>13.84798756909883</v>
+        <v>13.84798756909882</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>6.838373080604501</v>
+        <v>6.8383730806045</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18087,7 +18087,7 @@
         <v>2218</v>
       </c>
       <c r="B2218">
-        <v>2.295590277309679</v>
+        <v>2.295590277309678</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>5.700612694313426</v>
+        <v>5.700612694313425</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>4.331179651960558</v>
+        <v>4.331179651960557</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>2.661433785581023</v>
+        <v>2.661433785581022</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18207,7 +18207,7 @@
         <v>2233</v>
       </c>
       <c r="B2233">
-        <v>1.712481485237133</v>
+        <v>1.712481485237132</v>
       </c>
     </row>
     <row r="2234" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>3.149780988012809</v>
+        <v>3.149780988012808</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>7.842698222993065</v>
+        <v>7.842698222993064</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18351,7 +18351,7 @@
         <v>2251</v>
       </c>
       <c r="B2251">
-        <v>33.03408826479086</v>
+        <v>33.03408826479085</v>
       </c>
     </row>
     <row r="2252" spans="1:2">
@@ -18711,7 +18711,7 @@
         <v>2296</v>
       </c>
       <c r="B2296">
-        <v>0.7841438017526822</v>
+        <v>0.7841438017526821</v>
       </c>
     </row>
     <row r="2297" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>6.02348905760663</v>
+        <v>6.023489057606629</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18879,7 +18879,7 @@
         <v>2317</v>
       </c>
       <c r="B2317">
-        <v>18.39457443447548</v>
+        <v>18.39457443447547</v>
       </c>
     </row>
     <row r="2318" spans="1:2">
@@ -18943,7 +18943,7 @@
         <v>2325</v>
       </c>
       <c r="B2325">
-        <v>40.71548018810472</v>
+        <v>40.71548018810471</v>
       </c>
     </row>
     <row r="2326" spans="1:2">
@@ -19031,7 +19031,7 @@
         <v>2336</v>
       </c>
       <c r="B2336">
-        <v>2.128566161666192</v>
+        <v>2.128566161666191</v>
       </c>
     </row>
     <row r="2337" spans="1:2">
@@ -19119,7 +19119,7 @@
         <v>2347</v>
       </c>
       <c r="B2347">
-        <v>83.03054210522306</v>
+        <v>83.03054210522305</v>
       </c>
     </row>
     <row r="2348" spans="1:2">
@@ -19295,7 +19295,7 @@
         <v>2369</v>
       </c>
       <c r="B2369">
-        <v>52.48814381113096</v>
+        <v>52.48814381113095</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19343,7 +19343,7 @@
         <v>2375</v>
       </c>
       <c r="B2375">
-        <v>49.438446582821</v>
+        <v>49.43844658282099</v>
       </c>
     </row>
     <row r="2376" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>8.728710587074044</v>
+        <v>8.728710587074042</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>9.113835238978918</v>
+        <v>9.113835238978917</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>24.84366125442611</v>
+        <v>24.8436612544261</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>59.90694408380426</v>
+        <v>59.90694408380425</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>3.728361832538037</v>
+        <v>3.728361832538036</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19735,7 +19735,7 @@
         <v>2424</v>
       </c>
       <c r="B2424">
-        <v>6.416995541217219</v>
+        <v>6.416995541217218</v>
       </c>
     </row>
     <row r="2425" spans="1:2">
@@ -19839,7 +19839,7 @@
         <v>2437</v>
       </c>
       <c r="B2437">
-        <v>4.301257098913235</v>
+        <v>4.301257098913234</v>
       </c>
     </row>
     <row r="2438" spans="1:2">
@@ -19919,7 +19919,7 @@
         <v>2447</v>
       </c>
       <c r="B2447">
-        <v>26.47492396271902</v>
+        <v>26.47492396271901</v>
       </c>
     </row>
     <row r="2448" spans="1:2">
@@ -19975,7 +19975,7 @@
         <v>2454</v>
       </c>
       <c r="B2454">
-        <v>2.40033679723763</v>
+        <v>2.400336797237629</v>
       </c>
     </row>
     <row r="2455" spans="1:2">
@@ -20007,7 +20007,7 @@
         <v>2458</v>
       </c>
       <c r="B2458">
-        <v>9.483339204523142</v>
+        <v>9.483339204523141</v>
       </c>
     </row>
     <row r="2459" spans="1:2">
@@ -20111,7 +20111,7 @@
         <v>2471</v>
       </c>
       <c r="B2471">
-        <v>30.36245267635404</v>
+        <v>30.36245267635403</v>
       </c>
     </row>
     <row r="2472" spans="1:2">
@@ -20279,7 +20279,7 @@
         <v>2492</v>
       </c>
       <c r="B2492">
-        <v>78.99026476623776</v>
+        <v>78.99026476623774</v>
       </c>
     </row>
     <row r="2493" spans="1:2">
@@ -20343,7 +20343,7 @@
         <v>2500</v>
       </c>
       <c r="B2500">
-        <v>4.194579240840505</v>
+        <v>4.194579240840504</v>
       </c>
     </row>
     <row r="2501" spans="1:2">
@@ -20359,7 +20359,7 @@
         <v>2502</v>
       </c>
       <c r="B2502">
-        <v>3.575202907733618</v>
+        <v>3.575202907733617</v>
       </c>
     </row>
     <row r="2503" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>50.6538121801496</v>
+        <v>50.65381218014959</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>9.513203143362734</v>
+        <v>9.513203143362732</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20703,7 +20703,7 @@
         <v>2545</v>
       </c>
       <c r="B2545">
-        <v>46.72285033858498</v>
+        <v>46.72285033858497</v>
       </c>
     </row>
     <row r="2546" spans="1:2">
@@ -20767,7 +20767,7 @@
         <v>2553</v>
       </c>
       <c r="B2553">
-        <v>7.791322869915731</v>
+        <v>7.79132286991573</v>
       </c>
     </row>
     <row r="2554" spans="1:2">
@@ -20911,7 +20911,7 @@
         <v>2571</v>
       </c>
       <c r="B2571">
-        <v>28.09109351252088</v>
+        <v>28.09109351252087</v>
       </c>
     </row>
     <row r="2572" spans="1:2">
@@ -20975,7 +20975,7 @@
         <v>2579</v>
       </c>
       <c r="B2579">
-        <v>20.02788864003902</v>
+        <v>20.02788864003901</v>
       </c>
     </row>
     <row r="2580" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>54.25624138737486</v>
+        <v>54.25624138737485</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>5.649999325936611</v>
+        <v>5.64999932593661</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21255,7 +21255,7 @@
         <v>2614</v>
       </c>
       <c r="B2614">
-        <v>59.3591943125462</v>
+        <v>59.35919431254619</v>
       </c>
     </row>
     <row r="2615" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>5.513516143232024</v>
+        <v>5.513516143232023</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>2.628800325426082</v>
+        <v>2.628800325426081</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>5.811276318511951</v>
+        <v>5.81127631851195</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21367,7 +21367,7 @@
         <v>2628</v>
       </c>
       <c r="B2628">
-        <v>12.99345103457008</v>
+        <v>12.99345103457007</v>
       </c>
     </row>
     <row r="2629" spans="1:2">
@@ -21471,7 +21471,7 @@
         <v>2641</v>
       </c>
       <c r="B2641">
-        <v>7.035551275415854</v>
+        <v>7.035551275415853</v>
       </c>
     </row>
     <row r="2642" spans="1:2">
@@ -21543,7 +21543,7 @@
         <v>2650</v>
       </c>
       <c r="B2650">
-        <v>2.760957779600029</v>
+        <v>2.760957779600028</v>
       </c>
     </row>
     <row r="2651" spans="1:2">
@@ -21615,7 +21615,7 @@
         <v>2659</v>
       </c>
       <c r="B2659">
-        <v>67.06168735064368</v>
+        <v>67.06168735064367</v>
       </c>
     </row>
     <row r="2660" spans="1:2">
@@ -21807,7 +21807,7 @@
         <v>2683</v>
       </c>
       <c r="B2683">
-        <v>93.52922592318843</v>
+        <v>93.52922592318842</v>
       </c>
     </row>
     <row r="2684" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>56.79394351114345</v>
+        <v>56.79394351114344</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21831,7 +21831,7 @@
         <v>2686</v>
       </c>
       <c r="B2686">
-        <v>43.85163337281978</v>
+        <v>43.85163337281977</v>
       </c>
     </row>
     <row r="2687" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>29.49379011776181</v>
+        <v>29.4937901177618</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -22119,7 +22119,7 @@
         <v>2722</v>
       </c>
       <c r="B2722">
-        <v>7.833759556313894</v>
+        <v>7.833759556313893</v>
       </c>
     </row>
     <row r="2723" spans="1:2">
@@ -22159,7 +22159,7 @@
         <v>2727</v>
       </c>
       <c r="B2727">
-        <v>26.0926127927853</v>
+        <v>26.09261279278529</v>
       </c>
     </row>
     <row r="2728" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>51.9814239852855</v>
+        <v>51.98142398528549</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>5.233369537375643</v>
+        <v>5.233369537375642</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>5.866754666130543</v>
+        <v>5.866754666130542</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22679,7 +22679,7 @@
         <v>2792</v>
       </c>
       <c r="B2792">
-        <v>9.659767969797272</v>
+        <v>9.65976796979727</v>
       </c>
     </row>
     <row r="2793" spans="1:2">
@@ -22743,7 +22743,7 @@
         <v>2800</v>
       </c>
       <c r="B2800">
-        <v>77.26290406436779</v>
+        <v>77.26290406436777</v>
       </c>
     </row>
     <row r="2801" spans="1:2">
@@ -22807,7 +22807,7 @@
         <v>2808</v>
       </c>
       <c r="B2808">
-        <v>54.88575797841943</v>
+        <v>54.88575797841942</v>
       </c>
     </row>
     <row r="2809" spans="1:2">
@@ -22951,7 +22951,7 @@
         <v>2826</v>
       </c>
       <c r="B2826">
-        <v>109.142292436833</v>
+        <v>109.1422924368329</v>
       </c>
     </row>
     <row r="2827" spans="1:2">
@@ -22959,7 +22959,7 @@
         <v>2827</v>
       </c>
       <c r="B2827">
-        <v>92.25817682851418</v>
+        <v>92.25817682851417</v>
       </c>
     </row>
     <row r="2828" spans="1:2">
@@ -22983,7 +22983,7 @@
         <v>2830</v>
       </c>
       <c r="B2830">
-        <v>48.47072601316124</v>
+        <v>48.47072601316123</v>
       </c>
     </row>
     <row r="2831" spans="1:2">
@@ -22991,7 +22991,7 @@
         <v>2831</v>
       </c>
       <c r="B2831">
-        <v>30.327870293792</v>
+        <v>30.32787029379199</v>
       </c>
     </row>
     <row r="2832" spans="1:2">
@@ -23103,7 +23103,7 @@
         <v>2845</v>
       </c>
       <c r="B2845">
-        <v>8.750983986012306</v>
+        <v>8.750983986012304</v>
       </c>
     </row>
     <row r="2846" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>99.0331000292485</v>
+        <v>99.03310002924847</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23151,7 +23151,7 @@
         <v>2851</v>
       </c>
       <c r="B2851">
-        <v>78.86248579338141</v>
+        <v>78.8624857933814</v>
       </c>
     </row>
     <row r="2852" spans="1:2">
@@ -23183,7 +23183,7 @@
         <v>2855</v>
       </c>
       <c r="B2855">
-        <v>17.34242009857738</v>
+        <v>17.34242009857737</v>
       </c>
     </row>
     <row r="2856" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>1.764993953944473</v>
+        <v>1.764993953944472</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>32.05083493008205</v>
+        <v>32.05083493008204</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23327,7 +23327,7 @@
         <v>2873</v>
       </c>
       <c r="B2873">
-        <v>42.25439621211545</v>
+        <v>42.25439621211544</v>
       </c>
     </row>
     <row r="2874" spans="1:2">
@@ -23375,7 +23375,7 @@
         <v>2879</v>
       </c>
       <c r="B2879">
-        <v>27.17378116151087</v>
+        <v>27.17378116151086</v>
       </c>
     </row>
     <row r="2880" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>3.686540595321063</v>
+        <v>3.686540595321062</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>7.070661185847483</v>
+        <v>7.070661185847482</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23615,7 +23615,7 @@
         <v>2909</v>
       </c>
       <c r="B2909">
-        <v>2.662160601756903</v>
+        <v>2.662160601756902</v>
       </c>
     </row>
     <row r="2910" spans="1:2">
@@ -23663,7 +23663,7 @@
         <v>2915</v>
       </c>
       <c r="B2915">
-        <v>5.078159115300595</v>
+        <v>5.078159115300594</v>
       </c>
     </row>
     <row r="2916" spans="1:2">
@@ -23783,7 +23783,7 @@
         <v>2930</v>
       </c>
       <c r="B2930">
-        <v>8.579009900525829</v>
+        <v>8.579009900525827</v>
       </c>
     </row>
     <row r="2931" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>2943</v>
       </c>
       <c r="B2943">
-        <v>62.72218448118514</v>
+        <v>62.72218448118513</v>
       </c>
     </row>
     <row r="2944" spans="1:2">
@@ -24039,7 +24039,7 @@
         <v>2962</v>
       </c>
       <c r="B2962">
-        <v>33.12581949989186</v>
+        <v>33.12581949989185</v>
       </c>
     </row>
     <row r="2963" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>38.41252796630387</v>
+        <v>38.41252796630386</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>59.05117665091313</v>
+        <v>59.05117665091312</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>62.67148319149673</v>
+        <v>62.67148319149672</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24359,7 +24359,7 @@
         <v>3002</v>
       </c>
       <c r="B3002">
-        <v>73.90489610338609</v>
+        <v>73.90489610338608</v>
       </c>
     </row>
     <row r="3003" spans="1:2">
@@ -24447,7 +24447,7 @@
         <v>3013</v>
       </c>
       <c r="B3013">
-        <v>79.94333178396445</v>
+        <v>79.94333178396444</v>
       </c>
     </row>
     <row r="3014" spans="1:2">
@@ -24591,7 +24591,7 @@
         <v>3031</v>
       </c>
       <c r="B3031">
-        <v>9.588581014506431</v>
+        <v>9.588581014506429</v>
       </c>
     </row>
     <row r="3032" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>28.56337749132364</v>
+        <v>28.56337749132363</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24655,7 +24655,7 @@
         <v>3039</v>
       </c>
       <c r="B3039">
-        <v>54.51326468828086</v>
+        <v>54.51326468828085</v>
       </c>
     </row>
     <row r="3040" spans="1:2">
@@ -24783,7 +24783,7 @@
         <v>3055</v>
       </c>
       <c r="B3055">
-        <v>9.275141538658122</v>
+        <v>9.27514153865812</v>
       </c>
     </row>
     <row r="3056" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>80.93948024437437</v>
+        <v>80.93948024437435</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24879,7 +24879,7 @@
         <v>3067</v>
       </c>
       <c r="B3067">
-        <v>145.8743510674527</v>
+        <v>145.8743510674526</v>
       </c>
     </row>
     <row r="3068" spans="1:2">
@@ -24919,7 +24919,7 @@
         <v>3072</v>
       </c>
       <c r="B3072">
-        <v>62.64334837178524</v>
+        <v>62.64334837178523</v>
       </c>
     </row>
     <row r="3073" spans="1:2">
@@ -24935,7 +24935,7 @@
         <v>3074</v>
       </c>
       <c r="B3074">
-        <v>39.55609115916044</v>
+        <v>39.55609115916043</v>
       </c>
     </row>
     <row r="3075" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>6.54451075013877</v>
+        <v>6.544510750138769</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>7.407429116373235</v>
+        <v>7.407429116373234</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>7.276191905260685</v>
+        <v>7.276191905260684</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25063,7 +25063,7 @@
         <v>3090</v>
       </c>
       <c r="B3090">
-        <v>99.60869154917938</v>
+        <v>99.60869154917935</v>
       </c>
     </row>
     <row r="3091" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>7.727081698241165</v>
+        <v>7.727081698241164</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>7.893223670058281</v>
+        <v>7.89322367005828</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25407,7 +25407,7 @@
         <v>3133</v>
       </c>
       <c r="B3133">
-        <v>37.55881203068337</v>
+        <v>37.55881203068336</v>
       </c>
     </row>
     <row r="3134" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>18.06337485368429</v>
+        <v>18.06337485368428</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25735,7 +25735,7 @@
         <v>3174</v>
       </c>
       <c r="B3174">
-        <v>5.626670871259169</v>
+        <v>5.626670871259168</v>
       </c>
     </row>
     <row r="3175" spans="1:2">
@@ -25847,7 +25847,7 @@
         <v>3188</v>
       </c>
       <c r="B3188">
-        <v>84.57444033689103</v>
+        <v>84.57444033689102</v>
       </c>
     </row>
     <row r="3189" spans="1:2">
@@ -25855,7 +25855,7 @@
         <v>3189</v>
       </c>
       <c r="B3189">
-        <v>69.8546543490863</v>
+        <v>69.85465434908629</v>
       </c>
     </row>
     <row r="3190" spans="1:2">
@@ -25863,7 +25863,7 @@
         <v>3190</v>
       </c>
       <c r="B3190">
-        <v>57.09932353342857</v>
+        <v>57.09932353342856</v>
       </c>
     </row>
     <row r="3191" spans="1:2">
@@ -26007,7 +26007,7 @@
         <v>3208</v>
       </c>
       <c r="B3208">
-        <v>45.00574712306816</v>
+        <v>45.00574712306815</v>
       </c>
     </row>
     <row r="3209" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>55.36727369494002</v>
+        <v>55.36727369494001</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26247,7 +26247,7 @@
         <v>3238</v>
       </c>
       <c r="B3238">
-        <v>85.35400929973021</v>
+        <v>85.35400929973019</v>
       </c>
     </row>
     <row r="3239" spans="1:2">
@@ -26271,7 +26271,7 @@
         <v>3241</v>
       </c>
       <c r="B3241">
-        <v>39.91305168424996</v>
+        <v>39.91305168424995</v>
       </c>
     </row>
     <row r="3242" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>19.48380225676423</v>
+        <v>19.48380225676422</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>61.06633311274854</v>
+        <v>61.06633311274853</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26447,7 +26447,7 @@
         <v>3263</v>
       </c>
       <c r="B3263">
-        <v>74.22082668306302</v>
+        <v>74.22082668306301</v>
       </c>
     </row>
     <row r="3264" spans="1:2">
@@ -26455,7 +26455,7 @@
         <v>3264</v>
       </c>
       <c r="B3264">
-        <v>59.30849302285779</v>
+        <v>59.30849302285778</v>
       </c>
     </row>
     <row r="3265" spans="1:2">
@@ -26687,7 +26687,7 @@
         <v>3293</v>
       </c>
       <c r="B3293">
-        <v>28.57674153068659</v>
+        <v>28.57674153068658</v>
       </c>
     </row>
     <row r="3294" spans="1:2">
@@ -26703,7 +26703,7 @@
         <v>3295</v>
       </c>
       <c r="B3295">
-        <v>6.274328559596876</v>
+        <v>6.274328559596875</v>
       </c>
     </row>
     <row r="3296" spans="1:2">
@@ -26751,7 +26751,7 @@
         <v>3301</v>
       </c>
       <c r="B3301">
-        <v>23.73983849441202</v>
+        <v>23.73983849441201</v>
       </c>
     </row>
     <row r="3302" spans="1:2">
@@ -26767,7 +26767,7 @@
         <v>3303</v>
       </c>
       <c r="B3303">
-        <v>60.09831947205012</v>
+        <v>60.09831947205011</v>
       </c>
     </row>
     <row r="3304" spans="1:2">
@@ -26783,7 +26783,7 @@
         <v>3305</v>
       </c>
       <c r="B3305">
-        <v>87.08400764094813</v>
+        <v>87.08400764094812</v>
       </c>
     </row>
     <row r="3306" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>150.521285456467</v>
+        <v>150.5212854564669</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26831,7 +26831,7 @@
         <v>3311</v>
       </c>
       <c r="B3311">
-        <v>93.61656109270952</v>
+        <v>93.6165610927095</v>
       </c>
     </row>
     <row r="3312" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>66.13968586301509</v>
+        <v>66.13968586301507</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>51.32377257452944</v>
+        <v>51.32377257452943</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -27047,7 +27047,7 @@
         <v>3338</v>
       </c>
       <c r="B3338">
-        <v>37.32464827079296</v>
+        <v>37.32464827079295</v>
       </c>
     </row>
     <row r="3339" spans="1:2">
@@ -27143,7 +27143,7 @@
         <v>3350</v>
       </c>
       <c r="B3350">
-        <v>59.78971566833972</v>
+        <v>59.78971566833971</v>
       </c>
     </row>
     <row r="3351" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>80.38850669169103</v>
+        <v>80.38850669169102</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27199,7 +27199,7 @@
         <v>3357</v>
       </c>
       <c r="B3357">
-        <v>92.33965057726203</v>
+        <v>92.33965057726202</v>
       </c>
     </row>
     <row r="3358" spans="1:2">
@@ -27223,7 +27223,7 @@
         <v>3360</v>
       </c>
       <c r="B3360">
-        <v>50.71506402722982</v>
+        <v>50.71506402722981</v>
       </c>
     </row>
     <row r="3361" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>5.076459303276359</v>
+        <v>5.076459303276358</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>47.12552994570567</v>
+        <v>47.12552994570566</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27495,7 +27495,7 @@
         <v>3394</v>
       </c>
       <c r="B3394">
-        <v>60.92067680653385</v>
+        <v>60.92067680653384</v>
       </c>
     </row>
     <row r="3395" spans="1:2">
@@ -27503,7 +27503,7 @@
         <v>3395</v>
       </c>
       <c r="B3395">
-        <v>70.1374679013945</v>
+        <v>70.13746790139449</v>
       </c>
     </row>
     <row r="3396" spans="1:2">
@@ -27527,7 +27527,7 @@
         <v>3398</v>
       </c>
       <c r="B3398">
-        <v>100.8234710044307</v>
+        <v>100.8234710044306</v>
       </c>
     </row>
     <row r="3399" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>75.21697514347294</v>
+        <v>75.21697514347292</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27791,7 +27791,7 @@
         <v>3431</v>
       </c>
       <c r="B3431">
-        <v>61.54755575823047</v>
+        <v>61.54755575823046</v>
       </c>
     </row>
     <row r="3432" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>8.493550385652181</v>
+        <v>8.493550385652179</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -28023,7 +28023,7 @@
         <v>3460</v>
       </c>
       <c r="B3460">
-        <v>4.327721413704354</v>
+        <v>4.327721413704353</v>
       </c>
     </row>
     <row r="3461" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>7.975166332467993</v>
+        <v>7.975166332467992</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>187.3529882402316</v>
+        <v>187.3529882402315</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28607,7 +28607,7 @@
         <v>3533</v>
       </c>
       <c r="B3533">
-        <v>59.99896838994392</v>
+        <v>59.99896838994391</v>
       </c>
     </row>
     <row r="3534" spans="1:2">
@@ -28679,7 +28679,7 @@
         <v>3542</v>
       </c>
       <c r="B3542">
-        <v>94.38030421946098</v>
+        <v>94.38030421946095</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -28775,7 +28775,7 @@
         <v>3554</v>
       </c>
       <c r="B3554">
-        <v>91.04017359183764</v>
+        <v>91.0401735918376</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>83.94580295896245</v>
+        <v>83.94580295896243</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28799,7 +28799,7 @@
         <v>3557</v>
       </c>
       <c r="B3557">
-        <v>78.4372397162838</v>
+        <v>78.43723971628378</v>
       </c>
     </row>
     <row r="3558" spans="1:2">
@@ -28823,7 +28823,7 @@
         <v>3560</v>
       </c>
       <c r="B3560">
-        <v>34.39716166560478</v>
+        <v>34.39716166560477</v>
       </c>
     </row>
     <row r="3561" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>74.46847171073186</v>
+        <v>74.46847171073185</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28855,7 +28855,7 @@
         <v>3564</v>
       </c>
       <c r="B3564">
-        <v>89.5862481690387</v>
+        <v>89.58624816903868</v>
       </c>
     </row>
     <row r="3565" spans="1:2">
@@ -28967,7 +28967,7 @@
         <v>3578</v>
       </c>
       <c r="B3578">
-        <v>65.16669001465942</v>
+        <v>65.16669001465941</v>
       </c>
     </row>
     <row r="3579" spans="1:2">
@@ -29015,7 +29015,7 @@
         <v>3584</v>
       </c>
       <c r="B3584">
-        <v>27.34074373223624</v>
+        <v>27.34074373223623</v>
       </c>
     </row>
     <row r="3585" spans="1:2">
@@ -29031,7 +29031,7 @@
         <v>3586</v>
       </c>
       <c r="B3586">
-        <v>49.36752339146496</v>
+        <v>49.36752339146495</v>
       </c>
     </row>
     <row r="3587" spans="1:2">
@@ -29055,7 +29055,7 @@
         <v>3589</v>
       </c>
       <c r="B3589">
-        <v>82.30724278180686</v>
+        <v>82.30724278180685</v>
       </c>
     </row>
     <row r="3590" spans="1:2">
@@ -29143,7 +29143,7 @@
         <v>3600</v>
       </c>
       <c r="B3600">
-        <v>84.09556225971839</v>
+        <v>84.09556225971838</v>
       </c>
     </row>
     <row r="3601" spans="1:2">
@@ -29207,7 +29207,7 @@
         <v>3608</v>
       </c>
       <c r="B3608">
-        <v>35.82148691349892</v>
+        <v>35.82148691349891</v>
       </c>
     </row>
     <row r="3609" spans="1:2">
@@ -29215,7 +29215,7 @@
         <v>3609</v>
       </c>
       <c r="B3609">
-        <v>52.66662407367572</v>
+        <v>52.66662407367571</v>
       </c>
     </row>
     <row r="3610" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>74.47579848669839</v>
+        <v>74.47579848669838</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>245.7591155350511</v>
+        <v>245.759115535051</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>86.80852086460646</v>
+        <v>86.80852086460645</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -29791,7 +29791,7 @@
         <v>3681</v>
       </c>
       <c r="B3681">
-        <v>99.483550215671</v>
+        <v>99.48355021567096</v>
       </c>
     </row>
     <row r="3682" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>85.59901668805109</v>
+        <v>85.59901668805108</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>94.73521324727987</v>
+        <v>94.73521324727986</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30255,7 +30255,7 @@
         <v>3739</v>
       </c>
       <c r="B3739">
-        <v>235.5980495536236</v>
+        <v>235.5980495536235</v>
       </c>
     </row>
     <row r="3740" spans="1:2">
@@ -30319,7 +30319,7 @@
         <v>3747</v>
       </c>
       <c r="B3747">
-        <v>78.48823407701087</v>
+        <v>78.48823407701086</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -30519,7 +30519,7 @@
         <v>3772</v>
       </c>
       <c r="B3772">
-        <v>73.56903669308019</v>
+        <v>73.56903669308018</v>
       </c>
     </row>
     <row r="3773" spans="1:2">
@@ -30567,7 +30567,7 @@
         <v>3778</v>
       </c>
       <c r="B3778">
-        <v>81.15283596051982</v>
+        <v>81.15283596051981</v>
       </c>
     </row>
     <row r="3779" spans="1:2">
@@ -30647,7 +30647,7 @@
         <v>3788</v>
       </c>
       <c r="B3788">
-        <v>193.7797430470362</v>
+        <v>193.7797430470361</v>
       </c>
     </row>
     <row r="3789" spans="1:2">
@@ -30695,7 +30695,7 @@
         <v>3794</v>
       </c>
       <c r="B3794">
-        <v>78.43518821901317</v>
+        <v>78.43518821901316</v>
       </c>
     </row>
     <row r="3795" spans="1:2">
@@ -30711,7 +30711,7 @@
         <v>3796</v>
       </c>
       <c r="B3796">
-        <v>59.76158084862823</v>
+        <v>59.76158084862822</v>
       </c>
     </row>
     <row r="3797" spans="1:2">
@@ -30791,7 +30791,7 @@
         <v>3806</v>
       </c>
       <c r="B3806">
-        <v>72.91402292167209</v>
+        <v>72.91402292167207</v>
       </c>
     </row>
     <row r="3807" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>224.7816767297493</v>
+        <v>224.7816767297492</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30935,7 +30935,7 @@
         <v>3824</v>
       </c>
       <c r="B3824">
-        <v>43.93838240026354</v>
+        <v>43.93838240026353</v>
       </c>
     </row>
     <row r="3825" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>50.07822066021872</v>
+        <v>50.07822066021871</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -31023,7 +31023,7 @@
         <v>3835</v>
       </c>
       <c r="B3835">
-        <v>206.5063529009051</v>
+        <v>206.506352900905</v>
       </c>
     </row>
     <row r="3836" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>72.56497531462642</v>
+        <v>72.56497531462641</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31183,7 +31183,7 @@
         <v>3855</v>
       </c>
       <c r="B3855">
-        <v>62.90330238307785</v>
+        <v>62.90330238307784</v>
       </c>
     </row>
     <row r="3856" spans="1:2">
@@ -31279,7 +31279,7 @@
         <v>3867</v>
       </c>
       <c r="B3867">
-        <v>66.23903694512128</v>
+        <v>66.23903694512127</v>
       </c>
     </row>
     <row r="3868" spans="1:2">
@@ -31303,7 +31303,7 @@
         <v>3870</v>
       </c>
       <c r="B3870">
-        <v>63.00734260180263</v>
+        <v>63.00734260180262</v>
       </c>
     </row>
     <row r="3871" spans="1:2">
@@ -31319,7 +31319,7 @@
         <v>3872</v>
       </c>
       <c r="B3872">
-        <v>16.74505340047396</v>
+        <v>16.74505340047395</v>
       </c>
     </row>
     <row r="3873" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>23.31327359764043</v>
+        <v>23.31327359764042</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31551,7 +31551,7 @@
         <v>3901</v>
       </c>
       <c r="B3901">
-        <v>53.09978306881719</v>
+        <v>53.09978306881718</v>
       </c>
     </row>
     <row r="3902" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>85.46654857857617</v>
+        <v>85.46654857857615</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31639,7 +31639,7 @@
         <v>3912</v>
       </c>
       <c r="B3912">
-        <v>86.1441288199612</v>
+        <v>86.14412881996118</v>
       </c>
     </row>
     <row r="3913" spans="1:2">
@@ -31655,7 +31655,7 @@
         <v>3914</v>
       </c>
       <c r="B3914">
-        <v>57.80503859452509</v>
+        <v>57.80503859452508</v>
       </c>
     </row>
     <row r="3915" spans="1:2">
@@ -31679,7 +31679,7 @@
         <v>3917</v>
       </c>
       <c r="B3917">
-        <v>37.81612840262803</v>
+        <v>37.81612840262802</v>
       </c>
     </row>
     <row r="3918" spans="1:2">
@@ -32015,7 +32015,7 @@
         <v>3959</v>
       </c>
       <c r="B3959">
-        <v>79.67048264697074</v>
+        <v>79.67048264697073</v>
       </c>
     </row>
     <row r="3960" spans="1:2">
@@ -32023,7 +32023,7 @@
         <v>3960</v>
       </c>
       <c r="B3960">
-        <v>63.4328817499389</v>
+        <v>63.43288174993889</v>
       </c>
     </row>
     <row r="3961" spans="1:2">
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="B3961">
-        <v>52.44242472909979</v>
+        <v>52.44242472909978</v>
       </c>
     </row>
     <row r="3962" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>23.31383043261389</v>
+        <v>23.31383043261388</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32095,7 +32095,7 @@
         <v>3969</v>
       </c>
       <c r="B3969">
-        <v>30.5189526109992</v>
+        <v>30.51895261099919</v>
       </c>
     </row>
     <row r="3970" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>32.32075335668915</v>
+        <v>32.32075335668914</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32151,7 +32151,7 @@
         <v>3976</v>
       </c>
       <c r="B3976">
-        <v>83.57829187648112</v>
+        <v>83.5782918764811</v>
       </c>
     </row>
     <row r="3977" spans="1:2">
@@ -32231,7 +32231,7 @@
         <v>3986</v>
       </c>
       <c r="B3986">
-        <v>41.12577964223061</v>
+        <v>41.1257796422306</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>5.038184225627187</v>
+        <v>5.038184225627186</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32351,7 +32351,7 @@
         <v>4001</v>
       </c>
       <c r="B4001">
-        <v>91.97272563685804</v>
+        <v>91.97272563685802</v>
       </c>
     </row>
     <row r="4002" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>37.05941898080444</v>
+        <v>37.05941898080443</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>56.65121791531537</v>
+        <v>56.65121791531536</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32615,7 +32615,7 @@
         <v>4034</v>
       </c>
       <c r="B4034">
-        <v>64.12482247221834</v>
+        <v>64.12482247221833</v>
       </c>
     </row>
     <row r="4035" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>50.7531632622558</v>
+        <v>50.75316326225579</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32807,7 +32807,7 @@
         <v>4058</v>
       </c>
       <c r="B4058">
-        <v>75.8283213301205</v>
+        <v>75.82832133012049</v>
       </c>
     </row>
     <row r="4059" spans="1:2">
@@ -32831,7 +32831,7 @@
         <v>4061</v>
       </c>
       <c r="B4061">
-        <v>57.02048742402867</v>
+        <v>57.02048742402866</v>
       </c>
     </row>
     <row r="4062" spans="1:2">
@@ -32879,7 +32879,7 @@
         <v>4067</v>
       </c>
       <c r="B4067">
-        <v>70.33617006560689</v>
+        <v>70.33617006560688</v>
       </c>
     </row>
     <row r="4068" spans="1:2">
@@ -33015,7 +33015,7 @@
         <v>4084</v>
       </c>
       <c r="B4084">
-        <v>72.06030698605159</v>
+        <v>72.06030698605157</v>
       </c>
     </row>
     <row r="4085" spans="1:2">
@@ -33023,7 +33023,7 @@
         <v>4085</v>
       </c>
       <c r="B4085">
-        <v>71.81852337915598</v>
+        <v>71.81852337915596</v>
       </c>
     </row>
     <row r="4086" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>95.57046570746471</v>
+        <v>95.57046570746468</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33151,7 +33151,7 @@
         <v>4101</v>
       </c>
       <c r="B4101">
-        <v>182.8657775672877</v>
+        <v>182.8657775672876</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
@@ -33215,7 +33215,7 @@
         <v>4109</v>
       </c>
       <c r="B4109">
-        <v>64.12687396948897</v>
+        <v>64.12687396948895</v>
       </c>
     </row>
     <row r="4110" spans="1:2">
@@ -33223,7 +33223,7 @@
         <v>4110</v>
       </c>
       <c r="B4110">
-        <v>69.00562755008438</v>
+        <v>69.00562755008437</v>
       </c>
     </row>
     <row r="4111" spans="1:2">
@@ -33375,7 +33375,7 @@
         <v>4129</v>
       </c>
       <c r="B4129">
-        <v>88.65105848467034</v>
+        <v>88.65105848467033</v>
       </c>
     </row>
     <row r="4130" spans="1:2">
@@ -33607,7 +33607,7 @@
         <v>4158</v>
       </c>
       <c r="B4158">
-        <v>62.64803750840382</v>
+        <v>62.64803750840381</v>
       </c>
     </row>
     <row r="4159" spans="1:2">
@@ -33719,7 +33719,7 @@
         <v>4172</v>
       </c>
       <c r="B4172">
-        <v>137.9429695481607</v>
+        <v>137.9429695481606</v>
       </c>
     </row>
     <row r="4173" spans="1:2">
@@ -33743,7 +33743,7 @@
         <v>4175</v>
       </c>
       <c r="B4175">
-        <v>86.25139282011125</v>
+        <v>86.25139282011123</v>
       </c>
     </row>
     <row r="4176" spans="1:2">
@@ -33751,7 +33751,7 @@
         <v>4176</v>
       </c>
       <c r="B4176">
-        <v>72.65963726011404</v>
+        <v>72.65963726011402</v>
       </c>
     </row>
     <row r="4177" spans="1:2">
@@ -33783,7 +33783,7 @@
         <v>4180</v>
       </c>
       <c r="B4180">
-        <v>34.61374116317551</v>
+        <v>34.6137411631755</v>
       </c>
     </row>
     <row r="4181" spans="1:2">
@@ -33975,7 +33975,7 @@
         <v>4204</v>
       </c>
       <c r="B4204">
-        <v>34.65184039820149</v>
+        <v>34.65184039820148</v>
       </c>
     </row>
     <row r="4205" spans="1:2">
@@ -34023,7 +34023,7 @@
         <v>4210</v>
       </c>
       <c r="B4210">
-        <v>46.05025230485719</v>
+        <v>46.05025230485718</v>
       </c>
     </row>
     <row r="4211" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>49.73151762148235</v>
+        <v>49.73151762148234</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34127,7 +34127,7 @@
         <v>4223</v>
       </c>
       <c r="B4223">
-        <v>100.2525686211184</v>
+        <v>100.2525686211183</v>
       </c>
     </row>
     <row r="4224" spans="1:2">
@@ -34135,7 +34135,7 @@
         <v>4224</v>
       </c>
       <c r="B4224">
-        <v>82.32980925178379</v>
+        <v>82.32980925178377</v>
       </c>
     </row>
     <row r="4225" spans="1:2">
@@ -34167,7 +34167,7 @@
         <v>4228</v>
       </c>
       <c r="B4228">
-        <v>41.86461173069586</v>
+        <v>41.86461173069585</v>
       </c>
     </row>
     <row r="4229" spans="1:2">
@@ -34183,7 +34183,7 @@
         <v>4230</v>
       </c>
       <c r="B4230">
-        <v>45.01571153838264</v>
+        <v>45.01571153838263</v>
       </c>
     </row>
     <row r="4231" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>44.96237260934628</v>
+        <v>44.96237260934627</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34231,7 +34231,7 @@
         <v>4236</v>
       </c>
       <c r="B4236">
-        <v>58.70974889087266</v>
+        <v>58.70974889087265</v>
       </c>
     </row>
     <row r="4237" spans="1:2">
@@ -34343,7 +34343,7 @@
         <v>4250</v>
       </c>
       <c r="B4250">
-        <v>91.50908725369578</v>
+        <v>91.50908725369575</v>
       </c>
     </row>
     <row r="4251" spans="1:2">
@@ -34375,7 +34375,7 @@
         <v>4254</v>
       </c>
       <c r="B4254">
-        <v>83.74710079475005</v>
+        <v>83.74710079475004</v>
       </c>
     </row>
     <row r="4255" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>76.84293326596608</v>
+        <v>76.84293326596607</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34663,7 +34663,7 @@
         <v>4290</v>
       </c>
       <c r="B4290">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="4291" spans="1:2">
@@ -34711,7 +34711,7 @@
         <v>4296</v>
       </c>
       <c r="B4296">
-        <v>154.1673822484528</v>
+        <v>154.1673822484527</v>
       </c>
     </row>
     <row r="4297" spans="1:2">
@@ -34863,7 +34863,7 @@
         <v>4315</v>
       </c>
       <c r="B4315">
-        <v>267.0179025374677</v>
+        <v>267.0179025374676</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34943,7 +34943,7 @@
         <v>4325</v>
       </c>
       <c r="B4325">
-        <v>83.54312335184176</v>
+        <v>83.54312335184174</v>
       </c>
     </row>
     <row r="4326" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>74.35857007123386</v>
+        <v>74.35857007123384</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35039,7 +35039,7 @@
         <v>4337</v>
       </c>
       <c r="B4337">
-        <v>155.8557645021808</v>
+        <v>155.8557645021807</v>
       </c>
     </row>
     <row r="4338" spans="1:2">
@@ -35151,7 +35151,7 @@
         <v>4351</v>
       </c>
       <c r="B4351">
-        <v>21.23437418489618</v>
+        <v>21.23437418489617</v>
       </c>
     </row>
     <row r="4352" spans="1:2">
@@ -35183,7 +35183,7 @@
         <v>4355</v>
       </c>
       <c r="B4355">
-        <v>97.88865762327596</v>
+        <v>97.88865762327592</v>
       </c>
     </row>
     <row r="4356" spans="1:2">
@@ -35207,7 +35207,7 @@
         <v>4358</v>
       </c>
       <c r="B4358">
-        <v>96.41568258296402</v>
+        <v>96.415682582964</v>
       </c>
     </row>
     <row r="4359" spans="1:2">
@@ -35311,7 +35311,7 @@
         <v>4371</v>
       </c>
       <c r="B4371">
-        <v>95.32604446122114</v>
+        <v>95.32604446122112</v>
       </c>
     </row>
     <row r="4372" spans="1:2">
@@ -35367,7 +35367,7 @@
         <v>4378</v>
       </c>
       <c r="B4378">
-        <v>44.58548325362779</v>
+        <v>44.58548325362778</v>
       </c>
     </row>
     <row r="4379" spans="1:2">
@@ -35383,7 +35383,7 @@
         <v>4380</v>
       </c>
       <c r="B4380">
-        <v>79.24259893052518</v>
+        <v>79.24259893052516</v>
       </c>
     </row>
     <row r="4381" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>94.14584738853191</v>
+        <v>94.14584738853188</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35687,7 +35687,7 @@
         <v>4418</v>
       </c>
       <c r="B4418">
-        <v>110.0338145364408</v>
+        <v>110.0338145364407</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
@@ -35743,7 +35743,7 @@
         <v>4425</v>
       </c>
       <c r="B4425">
-        <v>52.03710748263115</v>
+        <v>52.03710748263114</v>
       </c>
     </row>
     <row r="4426" spans="1:2">
@@ -35759,7 +35759,7 @@
         <v>4427</v>
       </c>
       <c r="B4427">
-        <v>66.35626536058582</v>
+        <v>66.35626536058581</v>
       </c>
     </row>
     <row r="4428" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>58.18456558959153</v>
+        <v>58.18456558959152</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>167.5876912508331</v>
+        <v>167.587691250833</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36127,7 +36127,7 @@
         <v>4473</v>
       </c>
       <c r="B4473">
-        <v>65.36011690017591</v>
+        <v>65.3601169001759</v>
       </c>
     </row>
     <row r="4474" spans="1:2">
@@ -36199,7 +36199,7 @@
         <v>4482</v>
       </c>
       <c r="B4482">
-        <v>248.3088335714048</v>
+        <v>248.3088335714047</v>
       </c>
     </row>
     <row r="4483" spans="1:2">
@@ -36207,7 +36207,7 @@
         <v>4483</v>
       </c>
       <c r="B4483">
-        <v>234.8926275635657</v>
+        <v>234.8926275635656</v>
       </c>
     </row>
     <row r="4484" spans="1:2">
@@ -36223,7 +36223,7 @@
         <v>4485</v>
       </c>
       <c r="B4485">
-        <v>182.8247476218751</v>
+        <v>182.824747621875</v>
       </c>
     </row>
     <row r="4486" spans="1:2">
@@ -36319,7 +36319,7 @@
         <v>4497</v>
       </c>
       <c r="B4497">
-        <v>74.92419717585025</v>
+        <v>74.92419717585024</v>
       </c>
     </row>
     <row r="4498" spans="1:2">
@@ -36335,7 +36335,7 @@
         <v>4499</v>
       </c>
       <c r="B4499">
-        <v>62.93114413175068</v>
+        <v>62.93114413175067</v>
       </c>
     </row>
     <row r="4500" spans="1:2">
@@ -36439,7 +36439,7 @@
         <v>4512</v>
       </c>
       <c r="B4512">
-        <v>113.5184291861242</v>
+        <v>113.5184291861241</v>
       </c>
     </row>
     <row r="4513" spans="1:2">
@@ -36783,7 +36783,7 @@
         <v>4555</v>
       </c>
       <c r="B4555">
-        <v>241.7724701961408</v>
+        <v>241.7724701961407</v>
       </c>
     </row>
     <row r="4556" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>48.05515128033945</v>
+        <v>48.05515128033944</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -36927,7 +36927,7 @@
         <v>4573</v>
       </c>
       <c r="B4573">
-        <v>62.63309088543209</v>
+        <v>62.63309088543208</v>
       </c>
     </row>
     <row r="4574" spans="1:2">
@@ -36935,7 +36935,7 @@
         <v>4574</v>
       </c>
       <c r="B4574">
-        <v>77.95572399976321</v>
+        <v>77.95572399976319</v>
       </c>
     </row>
     <row r="4575" spans="1:2">
@@ -36983,7 +36983,7 @@
         <v>4580</v>
       </c>
       <c r="B4580">
-        <v>211.4853367767227</v>
+        <v>211.4853367767226</v>
       </c>
     </row>
     <row r="4581" spans="1:2">
@@ -37047,7 +37047,7 @@
         <v>4588</v>
       </c>
       <c r="B4588">
-        <v>85.89648379229236</v>
+        <v>85.89648379229234</v>
       </c>
     </row>
     <row r="4589" spans="1:2">
@@ -37055,7 +37055,7 @@
         <v>4589</v>
       </c>
       <c r="B4589">
-        <v>85.78980593421963</v>
+        <v>85.78980593421961</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37095,7 +37095,7 @@
         <v>4594</v>
       </c>
       <c r="B4594">
-        <v>91.8760121940998</v>
+        <v>91.87601219409976</v>
       </c>
     </row>
     <row r="4595" spans="1:2">
@@ -37191,7 +37191,7 @@
         <v>4606</v>
       </c>
       <c r="B4606">
-        <v>182.2119360800342</v>
+        <v>182.2119360800341</v>
       </c>
     </row>
     <row r="4607" spans="1:2">
@@ -37199,7 +37199,7 @@
         <v>4607</v>
       </c>
       <c r="B4607">
-        <v>152.7700195361155</v>
+        <v>152.7700195361154</v>
       </c>
     </row>
     <row r="4608" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>85.52281821799914</v>
+        <v>85.52281821799913</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>88.27944440764776</v>
+        <v>88.27944440764774</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37423,7 +37423,7 @@
         <v>4635</v>
       </c>
       <c r="B4635">
-        <v>66.50192166680051</v>
+        <v>66.5019216668005</v>
       </c>
     </row>
     <row r="4636" spans="1:2">
@@ -37615,7 +37615,7 @@
         <v>4659</v>
       </c>
       <c r="B4659">
-        <v>88.06286491007702</v>
+        <v>88.06286491007701</v>
       </c>
     </row>
     <row r="4660" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>75.86143835748923</v>
+        <v>75.86143835748922</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>70.74822794596474</v>
+        <v>70.74822794596473</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37767,7 +37767,7 @@
         <v>4678</v>
       </c>
       <c r="B4678">
-        <v>196.9065179585141</v>
+        <v>196.906517958514</v>
       </c>
     </row>
     <row r="4679" spans="1:2">
@@ -37999,7 +37999,7 @@
         <v>4707</v>
       </c>
       <c r="B4707">
-        <v>123.2859007626295</v>
+        <v>123.2859007626294</v>
       </c>
     </row>
     <row r="4708" spans="1:2">
@@ -38119,7 +38119,7 @@
         <v>4722</v>
       </c>
       <c r="B4722">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="4723" spans="1:2">
@@ -38143,7 +38143,7 @@
         <v>4725</v>
       </c>
       <c r="B4725">
-        <v>242.881744077474</v>
+        <v>242.8817440774739</v>
       </c>
     </row>
     <row r="4726" spans="1:2">
@@ -38231,7 +38231,7 @@
         <v>4736</v>
       </c>
       <c r="B4736">
-        <v>66.53503869416924</v>
+        <v>66.53503869416923</v>
       </c>
     </row>
     <row r="4737" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>50.12393974224989</v>
+        <v>50.12393974224988</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>63.29513836176807</v>
+        <v>63.29513836176806</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38783,7 +38783,7 @@
         <v>4805</v>
       </c>
       <c r="B4805">
-        <v>70.20047817470669</v>
+        <v>70.20047817470667</v>
       </c>
     </row>
     <row r="4806" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>81.99658748082584</v>
+        <v>81.99658748082582</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -39047,7 +39047,7 @@
         <v>4838</v>
       </c>
       <c r="B4838">
-        <v>75.17653134013767</v>
+        <v>75.17653134013766</v>
       </c>
     </row>
     <row r="4839" spans="1:2">
@@ -39087,7 +39087,7 @@
         <v>4843</v>
       </c>
       <c r="B4843">
-        <v>210.3836827423947</v>
+        <v>210.3836827423946</v>
       </c>
     </row>
     <row r="4844" spans="1:2">
@@ -39151,7 +39151,7 @@
         <v>4851</v>
       </c>
       <c r="B4851">
-        <v>88.12587518338921</v>
+        <v>88.1258751833892</v>
       </c>
     </row>
     <row r="4852" spans="1:2">
@@ -39167,7 +39167,7 @@
         <v>4853</v>
       </c>
       <c r="B4853">
-        <v>78.11339621856301</v>
+        <v>78.113396218563</v>
       </c>
     </row>
     <row r="4854" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>89.65980899974269</v>
+        <v>89.65980899974268</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39215,7 +39215,7 @@
         <v>4859</v>
       </c>
       <c r="B4859">
-        <v>94.4544511922423</v>
+        <v>94.45445119224227</v>
       </c>
     </row>
     <row r="4860" spans="1:2">
@@ -39271,7 +39271,7 @@
         <v>4866</v>
       </c>
       <c r="B4866">
-        <v>210.4836199665782</v>
+        <v>210.4836199665781</v>
       </c>
     </row>
     <row r="4867" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>81.748942453157</v>
+        <v>81.74894245315699</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>83.81011106806224</v>
+        <v>83.81011106806223</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39431,7 +39431,7 @@
         <v>4886</v>
       </c>
       <c r="B4886">
-        <v>96.00889998130208</v>
+        <v>96.00889998130206</v>
       </c>
     </row>
     <row r="4887" spans="1:2">
@@ -39439,7 +39439,7 @@
         <v>4887</v>
       </c>
       <c r="B4887">
-        <v>112.3030635887956</v>
+        <v>112.3030635887955</v>
       </c>
     </row>
     <row r="4888" spans="1:2">
@@ -39455,7 +39455,7 @@
         <v>4889</v>
       </c>
       <c r="B4889">
-        <v>158.7932155226835</v>
+        <v>158.7932155226834</v>
       </c>
     </row>
     <row r="4890" spans="1:2">
@@ -39511,7 +39511,7 @@
         <v>4896</v>
       </c>
       <c r="B4896">
-        <v>126.3558198926071</v>
+        <v>126.355819892607</v>
       </c>
     </row>
     <row r="4897" spans="1:2">
@@ -39527,7 +39527,7 @@
         <v>4898</v>
       </c>
       <c r="B4898">
-        <v>99.43519349429188</v>
+        <v>99.43519349429184</v>
       </c>
     </row>
     <row r="4899" spans="1:2">
@@ -39535,7 +39535,7 @@
         <v>4899</v>
       </c>
       <c r="B4899">
-        <v>89.65775750247207</v>
+        <v>89.65775750247205</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39543,7 +39543,7 @@
         <v>4900</v>
       </c>
       <c r="B4900">
-        <v>81.31109432139695</v>
+        <v>81.31109432139694</v>
       </c>
     </row>
     <row r="4901" spans="1:2">
@@ -39631,7 +39631,7 @@
         <v>4911</v>
       </c>
       <c r="B4911">
-        <v>116.0332717688772</v>
+        <v>116.0332717688771</v>
       </c>
     </row>
     <row r="4912" spans="1:2">
@@ -39727,7 +39727,7 @@
         <v>4923</v>
       </c>
       <c r="B4923">
-        <v>93.1807644582201</v>
+        <v>93.18076445822008</v>
       </c>
     </row>
     <row r="4924" spans="1:2">
@@ -39751,7 +39751,7 @@
         <v>4926</v>
       </c>
       <c r="B4926">
-        <v>83.87634512279971</v>
+        <v>83.87634512279969</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>261.897951492054</v>
+        <v>261.8979514920539</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39871,7 +39871,7 @@
         <v>4941</v>
       </c>
       <c r="B4941">
-        <v>217.4991544900535</v>
+        <v>217.4991544900534</v>
       </c>
     </row>
     <row r="4942" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>108.132369637606</v>
+        <v>108.1323696376059</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40047,7 +40047,7 @@
         <v>4963</v>
       </c>
       <c r="B4963">
-        <v>265.4112871035262</v>
+        <v>265.4112871035261</v>
       </c>
     </row>
     <row r="4964" spans="1:2">
@@ -40071,7 +40071,7 @@
         <v>4966</v>
       </c>
       <c r="B4966">
-        <v>201.7184513422947</v>
+        <v>201.7184513422946</v>
       </c>
     </row>
     <row r="4967" spans="1:2">
@@ -40447,7 +40447,7 @@
         <v>5013</v>
       </c>
       <c r="B5013">
-        <v>224.22982396395</v>
+        <v>224.2298239639499</v>
       </c>
     </row>
     <row r="5014" spans="1:2">
@@ -40543,7 +40543,7 @@
         <v>5025</v>
       </c>
       <c r="B5025">
-        <v>92.92110351796616</v>
+        <v>92.92110351796612</v>
       </c>
     </row>
     <row r="5026" spans="1:2">
@@ -40639,7 +40639,7 @@
         <v>5037</v>
       </c>
       <c r="B5037">
-        <v>225.5808814521788</v>
+        <v>225.5808814521787</v>
       </c>
     </row>
     <row r="5038" spans="1:2">
@@ -40663,7 +40663,7 @@
         <v>5040</v>
       </c>
       <c r="B5040">
-        <v>161.7464923792738</v>
+        <v>161.7464923792737</v>
       </c>
     </row>
     <row r="5041" spans="1:2">
@@ -40783,7 +40783,7 @@
         <v>5055</v>
       </c>
       <c r="B5055">
-        <v>151.4180828347707</v>
+        <v>151.4180828347706</v>
       </c>
     </row>
     <row r="5056" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>228.9303903530393</v>
+        <v>228.9303903530392</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40847,7 +40847,7 @@
         <v>5063</v>
       </c>
       <c r="B5063">
-        <v>195.4010120329108</v>
+        <v>195.4010120329107</v>
       </c>
     </row>
     <row r="5064" spans="1:2">
@@ -40879,7 +40879,7 @@
         <v>5067</v>
       </c>
       <c r="B5067">
-        <v>131.115586631506</v>
+        <v>131.1155866315059</v>
       </c>
     </row>
     <row r="5068" spans="1:2">
@@ -41039,7 +41039,7 @@
         <v>5087</v>
       </c>
       <c r="B5087">
-        <v>211.4097244487481</v>
+        <v>211.409724448748</v>
       </c>
     </row>
     <row r="5088" spans="1:2">
@@ -41055,7 +41055,7 @@
         <v>5089</v>
       </c>
       <c r="B5089">
-        <v>172.5068886347638</v>
+        <v>172.5068886347637</v>
       </c>
     </row>
     <row r="5090" spans="1:2">
@@ -41367,7 +41367,7 @@
         <v>5128</v>
       </c>
       <c r="B5128">
-        <v>242.3738519674739</v>
+        <v>242.3738519674738</v>
       </c>
     </row>
     <row r="5129" spans="1:2">
@@ -41415,7 +41415,7 @@
         <v>5134</v>
       </c>
       <c r="B5134">
-        <v>267.1105129856847</v>
+        <v>267.1105129856846</v>
       </c>
     </row>
     <row r="5135" spans="1:2">
@@ -41735,7 +41735,7 @@
         <v>5174</v>
       </c>
       <c r="B5174">
-        <v>166.4227338721543</v>
+        <v>166.4227338721542</v>
       </c>
     </row>
     <row r="5175" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>334.1009840739337</v>
+        <v>334.1009840739336</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41871,7 +41871,7 @@
         <v>5191</v>
       </c>
       <c r="B5191">
-        <v>29.3293772650728</v>
+        <v>29.32937726507279</v>
       </c>
     </row>
     <row r="5192" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>92.68664668703708</v>
+        <v>92.68664668703704</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -41919,7 +41919,7 @@
         <v>5197</v>
       </c>
       <c r="B5197">
-        <v>89.85059824591123</v>
+        <v>89.85059824591121</v>
       </c>
     </row>
     <row r="5198" spans="1:2">
@@ -42167,7 +42167,7 @@
         <v>5228</v>
       </c>
       <c r="B5228">
-        <v>259.5029749641135</v>
+        <v>259.5029749641134</v>
       </c>
     </row>
     <row r="5229" spans="1:2">
@@ -42311,7 +42311,7 @@
         <v>5246</v>
       </c>
       <c r="B5246">
-        <v>149.5603055206964</v>
+        <v>149.5603055206963</v>
       </c>
     </row>
     <row r="5247" spans="1:2">
@@ -42391,7 +42391,7 @@
         <v>5256</v>
       </c>
       <c r="B5256">
-        <v>108.6760164143228</v>
+        <v>108.6760164143227</v>
       </c>
     </row>
     <row r="5257" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>42.30509750180386</v>
+        <v>42.30509750180385</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>47.8160053127918</v>
+        <v>47.81600531279179</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42575,7 +42575,7 @@
         <v>5279</v>
       </c>
       <c r="B5279">
-        <v>92.48003160478082</v>
+        <v>92.48003160478081</v>
       </c>
     </row>
     <row r="5280" spans="1:2">
@@ -42591,7 +42591,7 @@
         <v>5281</v>
       </c>
       <c r="B5281">
-        <v>64.62362938001995</v>
+        <v>64.62362938001993</v>
       </c>
     </row>
     <row r="5282" spans="1:2">
@@ -42615,7 +42615,7 @@
         <v>5284</v>
       </c>
       <c r="B5284">
-        <v>36.54742387626307</v>
+        <v>36.54742387626306</v>
       </c>
     </row>
     <row r="5285" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>6.439737853817339</v>
+        <v>6.439737853817338</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -42695,7 +42695,7 @@
         <v>5294</v>
       </c>
       <c r="B5294">
-        <v>71.28073802321241</v>
+        <v>71.28073802321239</v>
       </c>
     </row>
     <row r="5295" spans="1:2">
@@ -42703,7 +42703,7 @@
         <v>5295</v>
       </c>
       <c r="B5295">
-        <v>90.38310832315889</v>
+        <v>90.38310832315888</v>
       </c>
     </row>
     <row r="5296" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>110.9353010513631</v>
+        <v>110.935301051363</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42991,7 +42991,7 @@
         <v>5331</v>
       </c>
       <c r="B5331">
-        <v>46.45791411963512</v>
+        <v>46.45791411963511</v>
       </c>
     </row>
     <row r="5332" spans="1:2">
@@ -43031,7 +43031,7 @@
         <v>5336</v>
       </c>
       <c r="B5336">
-        <v>12.38365812442742</v>
+        <v>12.38365812442741</v>
       </c>
     </row>
     <row r="5337" spans="1:2">
@@ -43103,7 +43103,7 @@
         <v>5345</v>
       </c>
       <c r="B5345">
-        <v>86.33814184755501</v>
+        <v>86.33814184755499</v>
       </c>
     </row>
     <row r="5346" spans="1:2">
@@ -43159,7 +43159,7 @@
         <v>5352</v>
       </c>
       <c r="B5352">
-        <v>94.08225097314239</v>
+        <v>94.08225097314238</v>
       </c>
     </row>
     <row r="5353" spans="1:2">
@@ -43207,7 +43207,7 @@
         <v>5358</v>
       </c>
       <c r="B5358">
-        <v>66.81257696778154</v>
+        <v>66.81257696778152</v>
       </c>
     </row>
     <row r="5359" spans="1:2">
@@ -43231,7 +43231,7 @@
         <v>5361</v>
       </c>
       <c r="B5361">
-        <v>54.4446860652341</v>
+        <v>54.44468606523409</v>
       </c>
     </row>
     <row r="5362" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>73.09015861590755</v>
+        <v>73.09015861590754</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43351,7 +43351,7 @@
         <v>5376</v>
       </c>
       <c r="B5376">
-        <v>108.9813964366079</v>
+        <v>108.9813964366078</v>
       </c>
     </row>
     <row r="5377" spans="1:2">
@@ -43391,7 +43391,7 @@
         <v>5381</v>
       </c>
       <c r="B5381">
-        <v>76.42706546210563</v>
+        <v>76.42706546210562</v>
       </c>
     </row>
     <row r="5382" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>78.62597746518171</v>
+        <v>78.62597746518169</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>82.8854719410857</v>
+        <v>82.88547194108568</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>86.76016414322734</v>
+        <v>86.76016414322733</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>72.08609723745379</v>
+        <v>72.08609723745377</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43695,7 +43695,7 @@
         <v>5419</v>
       </c>
       <c r="B5419">
-        <v>250.8424327006321</v>
+        <v>250.842432700632</v>
       </c>
     </row>
     <row r="5420" spans="1:2">
@@ -43767,7 +43767,7 @@
         <v>5428</v>
       </c>
       <c r="B5428">
-        <v>78.74320588064624</v>
+        <v>78.74320588064623</v>
       </c>
     </row>
     <row r="5429" spans="1:2">
@@ -43799,7 +43799,7 @@
         <v>5432</v>
       </c>
       <c r="B5432">
-        <v>24.88155533972502</v>
+        <v>24.88155533972501</v>
       </c>
     </row>
     <row r="5433" spans="1:2">
@@ -43967,7 +43967,7 @@
         <v>5453</v>
       </c>
       <c r="B5453">
-        <v>80.61299910730563</v>
+        <v>80.61299910730561</v>
       </c>
     </row>
     <row r="5454" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>82.13110708757139</v>
+        <v>82.13110708757138</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -44047,7 +44047,7 @@
         <v>5463</v>
       </c>
       <c r="B5463">
-        <v>89.99361691277797</v>
+        <v>89.99361691277795</v>
       </c>
     </row>
     <row r="5464" spans="1:2">
@@ -44183,7 +44183,7 @@
         <v>5480</v>
       </c>
       <c r="B5480">
-        <v>18.91565474121535</v>
+        <v>18.91565474121534</v>
       </c>
     </row>
     <row r="5481" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>37.28127375707108</v>
+        <v>37.28127375707107</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>66.71850116437125</v>
+        <v>66.71850116437123</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44343,7 +44343,7 @@
         <v>5500</v>
       </c>
       <c r="B5500">
-        <v>88.9948308130201</v>
+        <v>88.99483081302009</v>
       </c>
     </row>
     <row r="5501" spans="1:2">
@@ -44575,7 +44575,7 @@
         <v>5529</v>
       </c>
       <c r="B5529">
-        <v>65.66080778584245</v>
+        <v>65.66080778584244</v>
       </c>
     </row>
     <row r="5530" spans="1:2">
@@ -44879,7 +44879,7 @@
         <v>5567</v>
       </c>
       <c r="B5567">
-        <v>154.7655402383606</v>
+        <v>154.7655402383605</v>
       </c>
     </row>
     <row r="5568" spans="1:2">
@@ -44927,7 +44927,7 @@
         <v>5573</v>
       </c>
       <c r="B5573">
-        <v>84.58968003090142</v>
+        <v>84.58968003090141</v>
       </c>
     </row>
     <row r="5574" spans="1:2">
@@ -45103,7 +45103,7 @@
         <v>5595</v>
       </c>
       <c r="B5595">
-        <v>52.49840129748411</v>
+        <v>52.4984012974841</v>
       </c>
     </row>
     <row r="5596" spans="1:2">
@@ -45119,7 +45119,7 @@
         <v>5597</v>
       </c>
       <c r="B5597">
-        <v>41.67059870310205</v>
+        <v>41.67059870310204</v>
       </c>
     </row>
     <row r="5598" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>86.84955081001905</v>
+        <v>86.84955081001904</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45279,7 +45279,7 @@
         <v>5617</v>
       </c>
       <c r="B5617">
-        <v>65.53361495506343</v>
+        <v>65.53361495506341</v>
       </c>
     </row>
     <row r="5618" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>37.69626234781554</v>
+        <v>37.69626234781553</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45439,7 +45439,7 @@
         <v>5637</v>
       </c>
       <c r="B5637">
-        <v>148.6614566451221</v>
+        <v>148.661456645122</v>
       </c>
     </row>
     <row r="5638" spans="1:2">
@@ -45551,7 +45551,7 @@
         <v>5651</v>
       </c>
       <c r="B5651">
-        <v>57.29304348998372</v>
+        <v>57.29304348998371</v>
       </c>
     </row>
     <row r="5652" spans="1:2">
@@ -45631,7 +45631,7 @@
         <v>5661</v>
       </c>
       <c r="B5661">
-        <v>153.769977920028</v>
+        <v>153.7699779200279</v>
       </c>
     </row>
     <row r="5662" spans="1:2">
@@ -45639,7 +45639,7 @@
         <v>5662</v>
       </c>
       <c r="B5662">
-        <v>137.1871393394531</v>
+        <v>137.187139339453</v>
       </c>
     </row>
     <row r="5663" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>67.95115795298086</v>
+        <v>67.95115795298085</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>93.68015750809904</v>
+        <v>93.680157508099</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46135,7 +46135,7 @@
         <v>5724</v>
       </c>
       <c r="B5724">
-        <v>39.77296372776984</v>
+        <v>39.77296372776983</v>
       </c>
     </row>
     <row r="5725" spans="1:2">
@@ -46151,7 +46151,7 @@
         <v>5726</v>
       </c>
       <c r="B5726">
-        <v>74.34596801657142</v>
+        <v>74.3459680165714</v>
       </c>
     </row>
     <row r="5727" spans="1:2">
@@ -46215,7 +46215,7 @@
         <v>5734</v>
       </c>
       <c r="B5734">
-        <v>153.2620858100279</v>
+        <v>153.2620858100278</v>
       </c>
     </row>
     <row r="5735" spans="1:2">
@@ -46271,7 +46271,7 @@
         <v>5741</v>
       </c>
       <c r="B5741">
-        <v>71.93575179462051</v>
+        <v>71.9357517946205</v>
       </c>
     </row>
     <row r="5742" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>71.9404409312391</v>
+        <v>71.94044093123908</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46311,7 +46311,7 @@
         <v>5746</v>
       </c>
       <c r="B5746">
-        <v>51.08462660698178</v>
+        <v>51.08462660698177</v>
       </c>
     </row>
     <row r="5747" spans="1:2">
@@ -46455,7 +46455,7 @@
         <v>5764</v>
       </c>
       <c r="B5764">
-        <v>85.59637904870314</v>
+        <v>85.59637904870313</v>
       </c>
     </row>
     <row r="5765" spans="1:2">
@@ -46823,7 +46823,7 @@
         <v>5810</v>
       </c>
       <c r="B5810">
-        <v>54.62844160647477</v>
+        <v>54.62844160647476</v>
       </c>
     </row>
     <row r="5811" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>38.4274745892756</v>
+        <v>38.42747458927559</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>89.98629013681143</v>
+        <v>89.98629013681142</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>122.8712052429237</v>
+        <v>122.8712052429236</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47167,7 +47167,7 @@
         <v>5853</v>
       </c>
       <c r="B5853">
-        <v>185.7150142051533</v>
+        <v>185.7150142051532</v>
       </c>
     </row>
     <row r="5854" spans="1:2">
@@ -47439,7 +47439,7 @@
         <v>5887</v>
       </c>
       <c r="B5887">
-        <v>11.0188556044854</v>
+        <v>11.01885560448539</v>
       </c>
     </row>
     <row r="5888" spans="1:2">
@@ -47463,7 +47463,7 @@
         <v>5890</v>
       </c>
       <c r="B5890">
-        <v>41.57124762099585</v>
+        <v>41.57124762099584</v>
       </c>
     </row>
     <row r="5891" spans="1:2">
@@ -47575,7 +47575,7 @@
         <v>5904</v>
       </c>
       <c r="B5904">
-        <v>97.26470938196594</v>
+        <v>97.26470938196591</v>
       </c>
     </row>
     <row r="5905" spans="1:2">
@@ -47583,7 +47583,7 @@
         <v>5905</v>
       </c>
       <c r="B5905">
-        <v>87.54500838476243</v>
+        <v>87.54500838476241</v>
       </c>
     </row>
     <row r="5906" spans="1:2">
@@ -47647,7 +47647,7 @@
         <v>5913</v>
       </c>
       <c r="B5913">
-        <v>43.16643328442955</v>
+        <v>43.16643328442954</v>
       </c>
     </row>
     <row r="5914" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>52.2437225648874</v>
+        <v>52.24372256488739</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -47863,7 +47863,7 @@
         <v>5940</v>
       </c>
       <c r="B5940">
-        <v>86.0500530165509</v>
+        <v>86.05005301655089</v>
       </c>
     </row>
     <row r="5941" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>96.56192503125604</v>
+        <v>96.56192503125602</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -47975,7 +47975,7 @@
         <v>5954</v>
       </c>
       <c r="B5954">
-        <v>90.09765713150274</v>
+        <v>90.09765713150271</v>
       </c>
     </row>
     <row r="5955" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>140.294864633418</v>
+        <v>140.2948646334179</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>58.39586980846636</v>
+        <v>58.39586980846635</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48383,7 +48383,7 @@
         <v>6005</v>
       </c>
       <c r="B6005">
-        <v>71.35224735664578</v>
+        <v>71.35224735664576</v>
       </c>
     </row>
     <row r="6006" spans="1:2">
@@ -48391,7 +48391,7 @@
         <v>6006</v>
       </c>
       <c r="B6006">
-        <v>70.91703686423368</v>
+        <v>70.91703686423367</v>
       </c>
     </row>
     <row r="6007" spans="1:2">
@@ -48567,7 +48567,7 @@
         <v>6028</v>
       </c>
       <c r="B6028">
-        <v>74.47579848669839</v>
+        <v>74.47579848669838</v>
       </c>
     </row>
     <row r="6029" spans="1:2">
@@ -48743,7 +48743,7 @@
         <v>6050</v>
       </c>
       <c r="B6050">
-        <v>73.10012303122204</v>
+        <v>73.10012303122203</v>
       </c>
     </row>
     <row r="6051" spans="1:2">
@@ -48759,7 +48759,7 @@
         <v>6052</v>
       </c>
       <c r="B6052">
-        <v>57.46888611318053</v>
+        <v>57.46888611318052</v>
       </c>
     </row>
     <row r="6053" spans="1:2">
@@ -48887,7 +48887,7 @@
         <v>6068</v>
       </c>
       <c r="B6068">
-        <v>163.536863354456</v>
+        <v>163.5368633544559</v>
       </c>
     </row>
     <row r="6069" spans="1:2">
@@ -48967,7 +48967,7 @@
         <v>6078</v>
       </c>
       <c r="B6078">
-        <v>50.41202857325399</v>
+        <v>50.41202857325398</v>
       </c>
     </row>
     <row r="6079" spans="1:2">
@@ -48975,7 +48975,7 @@
         <v>6079</v>
       </c>
       <c r="B6079">
-        <v>8.636188060168658</v>
+        <v>8.636188060168656</v>
       </c>
     </row>
     <row r="6080" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>69.45725002066152</v>
+        <v>69.4572500206615</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49135,7 +49135,7 @@
         <v>6099</v>
       </c>
       <c r="B6099">
-        <v>63.29308686449744</v>
+        <v>63.29308686449743</v>
       </c>
     </row>
     <row r="6100" spans="1:2">
@@ -49287,7 +49287,7 @@
         <v>6118</v>
       </c>
       <c r="B6118">
-        <v>124.232227146467</v>
+        <v>124.2322271464669</v>
       </c>
     </row>
     <row r="6119" spans="1:2">
@@ -49311,7 +49311,7 @@
         <v>6121</v>
       </c>
       <c r="B6121">
-        <v>74.15254113105493</v>
+        <v>74.15254113105492</v>
       </c>
     </row>
     <row r="6122" spans="1:2">
@@ -49335,7 +49335,7 @@
         <v>6124</v>
       </c>
       <c r="B6124">
-        <v>46.55726520174132</v>
+        <v>46.55726520174131</v>
       </c>
     </row>
     <row r="6125" spans="1:2">
@@ -49359,7 +49359,7 @@
         <v>6127</v>
       </c>
       <c r="B6127">
-        <v>7.850523219725322</v>
+        <v>7.850523219725321</v>
       </c>
     </row>
     <row r="6128" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>56.33997647225702</v>
+        <v>56.33997647225701</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49527,7 +49527,7 @@
         <v>6148</v>
       </c>
       <c r="B6148">
-        <v>55.05134311526309</v>
+        <v>55.05134311526308</v>
       </c>
     </row>
     <row r="6149" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>53.84095972559173</v>
+        <v>53.84095972559172</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49599,7 +49599,7 @@
         <v>6157</v>
       </c>
       <c r="B6157">
-        <v>86.49317642700686</v>
+        <v>86.49317642700684</v>
       </c>
     </row>
     <row r="6158" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>52.47261104608191</v>
+        <v>52.4726110460819</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -49935,7 +49935,7 @@
         <v>6199</v>
       </c>
       <c r="B6199">
-        <v>9.939533583303392</v>
+        <v>9.93953358330339</v>
       </c>
     </row>
     <row r="6200" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>36.20335847687465</v>
+        <v>36.20335847687464</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -49959,7 +49959,7 @@
         <v>6202</v>
       </c>
       <c r="B6202">
-        <v>53.0458579977035</v>
+        <v>53.04585799770349</v>
       </c>
     </row>
     <row r="6203" spans="1:2">
@@ -50095,7 +50095,7 @@
         <v>6219</v>
       </c>
       <c r="B6219">
-        <v>81.43564951282802</v>
+        <v>81.43564951282801</v>
       </c>
     </row>
     <row r="6220" spans="1:2">
@@ -50103,7 +50103,7 @@
         <v>6220</v>
       </c>
       <c r="B6220">
-        <v>75.61496561397504</v>
+        <v>75.61496561397503</v>
       </c>
     </row>
     <row r="6221" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>56.37866184936032</v>
+        <v>56.37866184936031</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>60.60738386620487</v>
+        <v>60.60738386620486</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50559,7 +50559,7 @@
         <v>6277</v>
       </c>
       <c r="B6277">
-        <v>93.37213984646596</v>
+        <v>93.37213984646594</v>
       </c>
     </row>
     <row r="6278" spans="1:2">
@@ -50815,7 +50815,7 @@
         <v>6309</v>
       </c>
       <c r="B6309">
-        <v>80.05469877865576</v>
+        <v>80.05469877865575</v>
       </c>
     </row>
     <row r="6310" spans="1:2">
@@ -50823,7 +50823,7 @@
         <v>6310</v>
       </c>
       <c r="B6310">
-        <v>67.23254776618325</v>
+        <v>67.23254776618323</v>
       </c>
     </row>
     <row r="6311" spans="1:2">
@@ -51127,7 +51127,7 @@
         <v>6348</v>
       </c>
       <c r="B6348">
-        <v>33.35763869147299</v>
+        <v>33.35763869147298</v>
       </c>
     </row>
     <row r="6349" spans="1:2">
@@ -51151,7 +51151,7 @@
         <v>6351</v>
       </c>
       <c r="B6351">
-        <v>58.6306197104341</v>
+        <v>58.63061971043409</v>
       </c>
     </row>
     <row r="6352" spans="1:2">
@@ -51287,7 +51287,7 @@
         <v>6368</v>
       </c>
       <c r="B6368">
-        <v>6.929811244666841</v>
+        <v>6.92981124466684</v>
       </c>
     </row>
     <row r="6369" spans="1:2">
@@ -51319,7 +51319,7 @@
         <v>6372</v>
       </c>
       <c r="B6372">
-        <v>26.11007982668952</v>
+        <v>26.11007982668951</v>
       </c>
     </row>
     <row r="6373" spans="1:2">
@@ -51335,7 +51335,7 @@
         <v>6374</v>
       </c>
       <c r="B6374">
-        <v>37.53859012901574</v>
+        <v>37.53859012901573</v>
       </c>
     </row>
     <row r="6375" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>45.08487630350672</v>
+        <v>45.08487630350671</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51471,7 +51471,7 @@
         <v>6391</v>
       </c>
       <c r="B6391">
-        <v>4.716216382553833</v>
+        <v>4.716216382553832</v>
       </c>
     </row>
     <row r="6392" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>5.013243880237107</v>
+        <v>5.013243880237106</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51599,7 +51599,7 @@
         <v>6407</v>
       </c>
       <c r="B6407">
-        <v>72.29740145632861</v>
+        <v>72.2974014563286</v>
       </c>
     </row>
     <row r="6408" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>5.502379443762893</v>
+        <v>5.502379443762892</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>6.489501316182035</v>
+        <v>6.489501316182034</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>5.802718644183039</v>
+        <v>5.802718644183038</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -51903,7 +51903,7 @@
         <v>6445</v>
       </c>
       <c r="B6445">
-        <v>57.46097319513667</v>
+        <v>57.46097319513666</v>
       </c>
     </row>
     <row r="6446" spans="1:2">
@@ -51911,7 +51911,7 @@
         <v>6446</v>
       </c>
       <c r="B6446">
-        <v>72.73847336951394</v>
+        <v>72.73847336951393</v>
       </c>
     </row>
     <row r="6447" spans="1:2">
@@ -51951,7 +51951,7 @@
         <v>6451</v>
       </c>
       <c r="B6451">
-        <v>154.5510122380605</v>
+        <v>154.5510122380604</v>
       </c>
     </row>
     <row r="6452" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>45.60419818401462</v>
+        <v>45.60419818401461</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52103,7 +52103,7 @@
         <v>6470</v>
       </c>
       <c r="B6470">
-        <v>74.89840692444805</v>
+        <v>74.89840692444804</v>
       </c>
     </row>
     <row r="6471" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>93.20391707027434</v>
+        <v>93.20391707027431</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52183,7 +52183,7 @@
         <v>6480</v>
       </c>
       <c r="B6480">
-        <v>81.1833153485406</v>
+        <v>81.18331534854059</v>
       </c>
     </row>
     <row r="6481" spans="1:2">
@@ -52207,7 +52207,7 @@
         <v>6483</v>
       </c>
       <c r="B6483">
-        <v>55.35672313754821</v>
+        <v>55.3567231375482</v>
       </c>
     </row>
     <row r="6484" spans="1:2">
@@ -52463,7 +52463,7 @@
         <v>6515</v>
       </c>
       <c r="B6515">
-        <v>49.73913746848754</v>
+        <v>49.73913746848753</v>
       </c>
     </row>
     <row r="6516" spans="1:2">
@@ -52479,7 +52479,7 @@
         <v>6517</v>
       </c>
       <c r="B6517">
-        <v>83.29078918755434</v>
+        <v>83.29078918755432</v>
       </c>
     </row>
     <row r="6518" spans="1:2">
@@ -52655,7 +52655,7 @@
         <v>6539</v>
       </c>
       <c r="B6539">
-        <v>57.85837752356145</v>
+        <v>57.85837752356144</v>
       </c>
     </row>
     <row r="6540" spans="1:2">
@@ -52679,7 +52679,7 @@
         <v>6542</v>
       </c>
       <c r="B6542">
-        <v>88.61061468133508</v>
+        <v>88.61061468133506</v>
       </c>
     </row>
     <row r="6543" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>79.01283123621468</v>
+        <v>79.01283123621467</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>8.533818346364249</v>
+        <v>8.533818346364248</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53023,7 +53023,7 @@
         <v>6585</v>
       </c>
       <c r="B6585">
-        <v>6.679821648688713</v>
+        <v>6.679821648688712</v>
       </c>
     </row>
     <row r="6586" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>36.8504593302389</v>
+        <v>36.85045933023889</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53087,7 +53087,7 @@
         <v>6593</v>
       </c>
       <c r="B6593">
-        <v>44.78916762549742</v>
+        <v>44.78916762549741</v>
       </c>
     </row>
     <row r="6594" spans="1:2">
@@ -53111,7 +53111,7 @@
         <v>6596</v>
       </c>
       <c r="B6596">
-        <v>72.29007468036208</v>
+        <v>72.29007468036207</v>
       </c>
     </row>
     <row r="6597" spans="1:2">
@@ -53207,7 +53207,7 @@
         <v>6608</v>
       </c>
       <c r="B6608">
-        <v>2.19583475717013</v>
+        <v>2.195834757170129</v>
       </c>
     </row>
     <row r="6609" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>4.503769186628224</v>
+        <v>4.503769186628223</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>14.68203843802515</v>
+        <v>14.68203843802514</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>40.05284656969142</v>
+        <v>40.05284656969141</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53303,7 +53303,7 @@
         <v>6620</v>
       </c>
       <c r="B6620">
-        <v>65.91783108674845</v>
+        <v>65.91783108674844</v>
       </c>
     </row>
     <row r="6621" spans="1:2">
@@ -53495,7 +53495,7 @@
         <v>6644</v>
       </c>
       <c r="B6644">
-        <v>80.77067132610543</v>
+        <v>80.77067132610541</v>
       </c>
     </row>
     <row r="6645" spans="1:2">
@@ -53511,7 +53511,7 @@
         <v>6646</v>
       </c>
       <c r="B6646">
-        <v>62.84703274365487</v>
+        <v>62.84703274365486</v>
       </c>
     </row>
     <row r="6647" spans="1:2">
@@ -53527,7 +53527,7 @@
         <v>6648</v>
       </c>
       <c r="B6648">
-        <v>34.94256686855354</v>
+        <v>34.94256686855353</v>
       </c>
     </row>
     <row r="6649" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>14.41176832617166</v>
+        <v>14.41176832617165</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>38.59071515780997</v>
+        <v>38.59071515780996</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>49.09467425447125</v>
+        <v>49.09467425447124</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53647,7 +53647,7 @@
         <v>6663</v>
       </c>
       <c r="B6663">
-        <v>65.80324031063186</v>
+        <v>65.80324031063185</v>
       </c>
     </row>
     <row r="6664" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>74.26449426782357</v>
+        <v>74.26449426782355</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53727,7 +53727,7 @@
         <v>6673</v>
       </c>
       <c r="B6673">
-        <v>40.5624971059235</v>
+        <v>40.56249710592349</v>
       </c>
     </row>
     <row r="6674" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>19.45311771901639</v>
+        <v>19.45311771901638</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>5.473072339896758</v>
+        <v>5.473072339896757</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>16.78842791419584</v>
+        <v>16.78842791419583</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -54183,7 +54183,7 @@
         <v>6730</v>
       </c>
       <c r="B6730">
-        <v>45.12795774618994</v>
+        <v>45.12795774618993</v>
       </c>
     </row>
     <row r="6731" spans="1:2">
@@ -54287,7 +54287,7 @@
         <v>6743</v>
       </c>
       <c r="B6743">
-        <v>88.3193020689057</v>
+        <v>88.31930206890569</v>
       </c>
     </row>
     <row r="6744" spans="1:2">
@@ -54351,7 +54351,7 @@
         <v>6751</v>
       </c>
       <c r="B6751">
-        <v>8.21598280493602</v>
+        <v>8.215982804936019</v>
       </c>
     </row>
     <row r="6752" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>37.25577657670754</v>
+        <v>37.25577657670753</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54479,7 +54479,7 @@
         <v>6767</v>
       </c>
       <c r="B6767">
-        <v>52.63848925396423</v>
+        <v>52.63848925396422</v>
       </c>
     </row>
     <row r="6768" spans="1:2">
@@ -54647,7 +54647,7 @@
         <v>6788</v>
       </c>
       <c r="B6788">
-        <v>66.15287405975485</v>
+        <v>66.15287405975484</v>
       </c>
     </row>
     <row r="6789" spans="1:2">
@@ -54703,7 +54703,7 @@
         <v>6795</v>
       </c>
       <c r="B6795">
-        <v>6.399587121520734</v>
+        <v>6.399587121520733</v>
       </c>
     </row>
     <row r="6796" spans="1:2">
@@ -54711,7 +54711,7 @@
         <v>6796</v>
       </c>
       <c r="B6796">
-        <v>4.959113659396357</v>
+        <v>4.959113659396356</v>
       </c>
     </row>
     <row r="6797" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>63.25440148739414</v>
+        <v>63.25440148739413</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>2.392901584986792</v>
+        <v>2.392901584986791</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>3.110626697247653</v>
+        <v>3.110626697247652</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54951,7 +54951,7 @@
         <v>6826</v>
       </c>
       <c r="B6826">
-        <v>6.19127222724025</v>
+        <v>6.191272227240249</v>
       </c>
     </row>
     <row r="6827" spans="1:2">
@@ -55199,7 +55199,7 @@
         <v>6857</v>
       </c>
       <c r="B6857">
-        <v>25.98411789427287</v>
+        <v>25.98411789427286</v>
       </c>
     </row>
     <row r="6858" spans="1:2">
@@ -55255,7 +55255,7 @@
         <v>6864</v>
       </c>
       <c r="B6864">
-        <v>9.660324804770729</v>
+        <v>9.660324804770728</v>
       </c>
     </row>
     <row r="6865" spans="1:2">
@@ -55343,7 +55343,7 @@
         <v>6875</v>
       </c>
       <c r="B6875">
-        <v>2.652114126551592</v>
+        <v>2.652114126551591</v>
       </c>
     </row>
     <row r="6876" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>14.79410880320925</v>
+        <v>14.79410880320924</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55391,7 +55391,7 @@
         <v>6881</v>
       </c>
       <c r="B6881">
-        <v>11.13417905819864</v>
+        <v>11.13417905819863</v>
       </c>
     </row>
     <row r="6882" spans="1:2">
@@ -55415,7 +55415,7 @@
         <v>6884</v>
       </c>
       <c r="B6884">
-        <v>27.54797426367368</v>
+        <v>27.54797426367367</v>
       </c>
     </row>
     <row r="6885" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>1.514424077309796</v>
+        <v>1.514424077309795</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55583,7 +55583,7 @@
         <v>6905</v>
       </c>
       <c r="B6905">
-        <v>27.33728549398003</v>
+        <v>27.33728549398002</v>
       </c>
     </row>
     <row r="6906" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>51.60131084814173</v>
+        <v>51.60131084814172</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>5.353851041369322</v>
+        <v>5.353851041369321</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -55775,7 +55775,7 @@
         <v>6929</v>
       </c>
       <c r="B6929">
-        <v>30.32171580198011</v>
+        <v>30.3217158019801</v>
       </c>
     </row>
     <row r="6930" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>30.327870293792</v>
+        <v>30.32787029379199</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -55959,7 +55959,7 @@
         <v>6952</v>
       </c>
       <c r="B6952">
-        <v>40.36145037340182</v>
+        <v>40.36145037340181</v>
       </c>
     </row>
     <row r="6953" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>6.294902146510902</v>
+        <v>6.294902146510901</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56167,7 +56167,7 @@
         <v>6978</v>
       </c>
       <c r="B6978">
-        <v>114.6344437013466</v>
+        <v>114.6344437013465</v>
       </c>
     </row>
     <row r="6979" spans="1:2">
@@ -56191,7 +56191,7 @@
         <v>6981</v>
       </c>
       <c r="B6981">
-        <v>83.18880046610019</v>
+        <v>83.18880046610018</v>
       </c>
     </row>
     <row r="6982" spans="1:2">
@@ -56199,7 +56199,7 @@
         <v>6982</v>
       </c>
       <c r="B6982">
-        <v>72.37623756572852</v>
+        <v>72.3762375657285</v>
       </c>
     </row>
     <row r="6983" spans="1:2">
@@ -56239,7 +56239,7 @@
         <v>6987</v>
       </c>
       <c r="B6987">
-        <v>20.52936249429245</v>
+        <v>20.52936249429244</v>
       </c>
     </row>
     <row r="6988" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>63.14772362932141</v>
+        <v>63.1477236293214</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56487,7 +56487,7 @@
         <v>7018</v>
       </c>
       <c r="B7018">
-        <v>23.78031160485115</v>
+        <v>23.78031160485114</v>
       </c>
     </row>
     <row r="7019" spans="1:2">
@@ -56527,7 +56527,7 @@
         <v>7023</v>
       </c>
       <c r="B7023">
-        <v>76.83238270857427</v>
+        <v>76.83238270857426</v>
       </c>
     </row>
     <row r="7024" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>76.51645212889734</v>
+        <v>76.51645212889733</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56615,7 +56615,7 @@
         <v>7034</v>
       </c>
       <c r="B7034">
-        <v>37.80616398731355</v>
+        <v>37.80616398731354</v>
       </c>
     </row>
     <row r="7035" spans="1:2">
@@ -56719,7 +56719,7 @@
         <v>7047</v>
       </c>
       <c r="B7047">
-        <v>63.36137241650553</v>
+        <v>63.36137241650552</v>
       </c>
     </row>
     <row r="7048" spans="1:2">
@@ -56727,7 +56727,7 @@
         <v>7048</v>
       </c>
       <c r="B7048">
-        <v>62.3555526118198</v>
+        <v>62.35555261181979</v>
       </c>
     </row>
     <row r="7049" spans="1:2">
@@ -56847,7 +56847,7 @@
         <v>7063</v>
       </c>
       <c r="B7063">
-        <v>5.369061428275846</v>
+        <v>5.369061428275845</v>
       </c>
     </row>
     <row r="7064" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>38.31024617381106</v>
+        <v>38.31024617381105</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56911,7 +56911,7 @@
         <v>7071</v>
       </c>
       <c r="B7071">
-        <v>63.28488087541492</v>
+        <v>63.28488087541491</v>
       </c>
     </row>
     <row r="7072" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>46.86059372675581</v>
+        <v>46.8605937267558</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57383,7 +57383,7 @@
         <v>7130</v>
       </c>
       <c r="B7130">
-        <v>43.69894336167722</v>
+        <v>43.69894336167721</v>
       </c>
     </row>
     <row r="7131" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>9.752612874845187</v>
+        <v>9.752612874845186</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>75.64808264134378</v>
+        <v>75.64808264134376</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
@@ -57535,7 +57535,7 @@
         <v>7149</v>
       </c>
       <c r="B7149">
-        <v>86.2024499566548</v>
+        <v>86.20244995665479</v>
       </c>
     </row>
     <row r="7150" spans="1:2">
@@ -57719,7 +57719,7 @@
         <v>7172</v>
       </c>
       <c r="B7172">
-        <v>50.46302293398107</v>
+        <v>50.46302293398106</v>
       </c>
     </row>
     <row r="7173" spans="1:2">
@@ -57727,7 +57727,7 @@
         <v>7173</v>
       </c>
       <c r="B7173">
-        <v>42.58556648580277</v>
+        <v>42.58556648580276</v>
       </c>
     </row>
     <row r="7174" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>5.136597480409667</v>
+        <v>5.136597480409666</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57871,7 +57871,7 @@
         <v>7191</v>
       </c>
       <c r="B7191">
-        <v>29.45422552754253</v>
+        <v>29.45422552754252</v>
       </c>
     </row>
     <row r="7192" spans="1:2">
@@ -58111,7 +58111,7 @@
         <v>7221</v>
       </c>
       <c r="B7221">
-        <v>49.0844167681181</v>
+        <v>49.08441676811809</v>
       </c>
     </row>
     <row r="7222" spans="1:2">
@@ -58167,7 +58167,7 @@
         <v>7228</v>
       </c>
       <c r="B7228">
-        <v>3.654654466314709</v>
+        <v>3.654654466314708</v>
       </c>
     </row>
     <row r="7229" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>3.595336888089652</v>
+        <v>3.595336888089651</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>7.204917028658246</v>
+        <v>7.204917028658245</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58423,7 +58423,7 @@
         <v>7260</v>
       </c>
       <c r="B7260">
-        <v>7.236041172964081</v>
+        <v>7.23604117296408</v>
       </c>
     </row>
     <row r="7261" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>11.12066848331635</v>
+        <v>11.12066848331634</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58487,7 +58487,7 @@
         <v>7268</v>
       </c>
       <c r="B7268">
-        <v>31.29734928968373</v>
+        <v>31.29734928968372</v>
       </c>
     </row>
     <row r="7269" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>9.052847155833492</v>
+        <v>9.05284715583349</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>1.19201662767845</v>
+        <v>1.192016627678449</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>2.493803012887506</v>
+        <v>2.493803012887505</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>15.35879808050193</v>
+        <v>15.35879808050192</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>17.59862280057513</v>
+        <v>17.59862280057512</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>7.585587000775466</v>
+        <v>7.585587000775465</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>0.8268325292440937</v>
+        <v>0.8268325292440936</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59047,7 +59047,7 @@
         <v>7338</v>
       </c>
       <c r="B7338">
-        <v>33.8139502986687</v>
+        <v>33.81395029866869</v>
       </c>
     </row>
     <row r="7339" spans="1:2">
@@ -59175,7 +59175,7 @@
         <v>7354</v>
       </c>
       <c r="B7354">
-        <v>0.8708078385952286</v>
+        <v>0.8708078385952285</v>
       </c>
     </row>
     <row r="7355" spans="1:2">
@@ -59231,7 +59231,7 @@
         <v>7361</v>
       </c>
       <c r="B7361">
-        <v>10.99831132467524</v>
+        <v>10.99831132467523</v>
       </c>
     </row>
     <row r="7362" spans="1:2">
@@ -59255,7 +59255,7 @@
         <v>7364</v>
       </c>
       <c r="B7364">
-        <v>27.34414335628471</v>
+        <v>27.3441433562847</v>
       </c>
     </row>
     <row r="7365" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>20.41143070833512</v>
+        <v>20.41143070833511</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59383,7 +59383,7 @@
         <v>7380</v>
       </c>
       <c r="B7380">
-        <v>8.758017690940179</v>
+        <v>8.758017690940177</v>
       </c>
     </row>
     <row r="7381" spans="1:2">
@@ -59423,7 +59423,7 @@
         <v>7385</v>
       </c>
       <c r="B7385">
-        <v>8.454161638056096</v>
+        <v>8.454161638056094</v>
       </c>
     </row>
     <row r="7386" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>13.66511124097415</v>
+        <v>13.66511124097414</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>8.583493887417347</v>
+        <v>8.583493887417346</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59703,7 +59703,7 @@
         <v>7420</v>
       </c>
       <c r="B7420">
-        <v>4.065540062517915</v>
+        <v>4.065540062517914</v>
       </c>
     </row>
     <row r="7421" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>81.86939465004681</v>
+        <v>81.8693946500468</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -59831,7 +59831,7 @@
         <v>7436</v>
       </c>
       <c r="B7436">
-        <v>79.41814848268332</v>
+        <v>79.41814848268331</v>
       </c>
     </row>
     <row r="7437" spans="1:2">
@@ -59855,7 +59855,7 @@
         <v>7439</v>
       </c>
       <c r="B7439">
-        <v>57.88651234327294</v>
+        <v>57.88651234327293</v>
       </c>
     </row>
     <row r="7440" spans="1:2">
@@ -59879,7 +59879,7 @@
         <v>7442</v>
       </c>
       <c r="B7442">
-        <v>21.86450622512194</v>
+        <v>21.86450622512193</v>
       </c>
     </row>
     <row r="7443" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>6.464473049480357</v>
+        <v>6.464473049480356</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -60031,7 +60031,7 @@
         <v>7461</v>
       </c>
       <c r="B7461">
-        <v>66.3336988906089</v>
+        <v>66.33369889060889</v>
       </c>
     </row>
     <row r="7462" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>57.67520812439811</v>
+        <v>57.6752081243981</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60079,7 +60079,7 @@
         <v>7467</v>
       </c>
       <c r="B7467">
-        <v>5.539130552011025</v>
+        <v>5.539130552011024</v>
       </c>
     </row>
     <row r="7468" spans="1:2">
@@ -60623,7 +60623,7 @@
         <v>7535</v>
       </c>
       <c r="B7535">
-        <v>2.438186921880743</v>
+        <v>2.438186921880742</v>
       </c>
     </row>
     <row r="7536" spans="1:2">
@@ -60687,7 +60687,7 @@
         <v>7543</v>
       </c>
       <c r="B7543">
-        <v>0.978836754156187</v>
+        <v>0.9788367541561868</v>
       </c>
     </row>
     <row r="7544" spans="1:2">
@@ -60703,7 +60703,7 @@
         <v>7545</v>
       </c>
       <c r="B7545">
-        <v>0.7314496290013722</v>
+        <v>0.7314496290013721</v>
       </c>
     </row>
     <row r="7546" spans="1:2">
@@ -60719,7 +60719,7 @@
         <v>7547</v>
       </c>
       <c r="B7547">
-        <v>2.325943644783834</v>
+        <v>2.325943644783833</v>
       </c>
     </row>
     <row r="7548" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>6.87204694294669</v>
+        <v>6.872046942946689</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>11.25715166602094</v>
+        <v>11.25715166602093</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>0.8826420471363736</v>
+        <v>0.8826420471363735</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>0.8602074591268477</v>
+        <v>0.8602074591268476</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>2.929886856994815</v>
+        <v>2.929886856994814</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>0.7577879232458673</v>
+        <v>0.7577879232458672</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>0.7735580758362343</v>
+        <v>0.7735580758362341</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61527,7 +61527,7 @@
         <v>7648</v>
       </c>
       <c r="B7648">
-        <v>6.504154868115102</v>
+        <v>6.504154868115101</v>
       </c>
     </row>
     <row r="7649" spans="1:2">
@@ -61559,7 +61559,7 @@
         <v>7652</v>
       </c>
       <c r="B7652">
-        <v>11.25313659279128</v>
+        <v>11.25313659279127</v>
       </c>
     </row>
     <row r="7653" spans="1:2">
@@ -61759,7 +61759,7 @@
         <v>7677</v>
       </c>
       <c r="B7677">
-        <v>8.706994023109239</v>
+        <v>8.706994023109237</v>
       </c>
     </row>
     <row r="7678" spans="1:2">
@@ -61783,7 +61783,7 @@
         <v>7680</v>
       </c>
       <c r="B7680">
-        <v>2.399231919421877</v>
+        <v>2.399231919421876</v>
       </c>
     </row>
     <row r="7681" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>8.690259666801676</v>
+        <v>8.690259666801674</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>1.831380405622041</v>
+        <v>1.83138040562204</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>2.373687847692154</v>
+        <v>2.373687847692153</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>5.267043399717832</v>
+        <v>5.267043399717831</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>18.17189905930059</v>
+        <v>18.17189905930058</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>2.588374106353136</v>
+        <v>2.588374106353135</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62479,7 +62479,7 @@
         <v>7767</v>
       </c>
       <c r="B7767">
-        <v>6.951527808631646</v>
+        <v>6.951527808631645</v>
       </c>
     </row>
     <row r="7768" spans="1:2">
@@ -62535,7 +62535,7 @@
         <v>7774</v>
       </c>
       <c r="B7774">
-        <v>36.13741749317585</v>
+        <v>36.13741749317584</v>
       </c>
     </row>
     <row r="7775" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>0.8994320869412821</v>
+        <v>0.899432086941282</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>2.071980005521459</v>
+        <v>2.071980005521458</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>14.17991982748667</v>
+        <v>14.17991982748666</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>7.386591765524413</v>
+        <v>7.386591765524412</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>51.05150957961305</v>
+        <v>51.05150957961304</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -62911,7 +62911,7 @@
         <v>7821</v>
       </c>
       <c r="B7821">
-        <v>48.84732229784107</v>
+        <v>48.84732229784106</v>
       </c>
     </row>
     <row r="7822" spans="1:2">
@@ -62919,7 +62919,7 @@
         <v>7822</v>
       </c>
       <c r="B7822">
-        <v>44.72527813906925</v>
+        <v>44.72527813906924</v>
       </c>
     </row>
     <row r="7823" spans="1:2">
@@ -63087,7 +63087,7 @@
         <v>7843</v>
       </c>
       <c r="B7843">
-        <v>98.68669006155081</v>
+        <v>98.68669006155078</v>
       </c>
     </row>
     <row r="7844" spans="1:2">
@@ -63143,7 +63143,7 @@
         <v>7850</v>
       </c>
       <c r="B7850">
-        <v>39.32690960692727</v>
+        <v>39.32690960692726</v>
       </c>
     </row>
     <row r="7851" spans="1:2">
@@ -63279,7 +63279,7 @@
         <v>7867</v>
       </c>
       <c r="B7867">
-        <v>119.7907355555543</v>
+        <v>119.7907355555542</v>
       </c>
     </row>
     <row r="7868" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>107.7812705332897</v>
+        <v>107.7812705332896</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>23.99979250570463</v>
+        <v>23.99979250570462</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>6.900416219489108</v>
+        <v>6.900416219489107</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63559,7 +63559,7 @@
         <v>7902</v>
       </c>
       <c r="B7902">
-        <v>1.861569653314546</v>
+        <v>1.861569653314545</v>
       </c>
     </row>
     <row r="7903" spans="1:2">
@@ -63703,7 +63703,7 @@
         <v>7920</v>
       </c>
       <c r="B7920">
-        <v>6.298038006624578</v>
+        <v>6.298038006624577</v>
       </c>
     </row>
     <row r="7921" spans="1:2">
@@ -63839,7 +63839,7 @@
         <v>7937</v>
       </c>
       <c r="B7937">
-        <v>6.886231581217898</v>
+        <v>6.886231581217897</v>
       </c>
     </row>
     <row r="7938" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>32.78702937919935</v>
+        <v>32.78702937919934</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63927,7 +63927,7 @@
         <v>7948</v>
       </c>
       <c r="B7948">
-        <v>5.967072882664321</v>
+        <v>5.96707288266432</v>
       </c>
     </row>
     <row r="7949" spans="1:2">
@@ -64303,7 +64303,7 @@
         <v>7995</v>
       </c>
       <c r="B7995">
-        <v>5.451297161724219</v>
+        <v>5.451297161724218</v>
       </c>
     </row>
     <row r="7996" spans="1:2">
@@ -64375,7 +64375,7 @@
         <v>8004</v>
       </c>
       <c r="B8004">
-        <v>2.62946852739423</v>
+        <v>2.629468527394229</v>
       </c>
     </row>
     <row r="8005" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>0.6513738291079328</v>
+        <v>0.6513738291079327</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>0.949828582749487</v>
+        <v>0.9498285827494868</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64583,7 +64583,7 @@
         <v>8030</v>
       </c>
       <c r="B8030">
-        <v>6.347713547677676</v>
+        <v>6.347713547677675</v>
       </c>
     </row>
     <row r="8031" spans="1:2">
@@ -64591,7 +64591,7 @@
         <v>8031</v>
       </c>
       <c r="B8031">
-        <v>6.881190759352923</v>
+        <v>6.881190759352922</v>
       </c>
     </row>
     <row r="8032" spans="1:2">
@@ -64599,7 +64599,7 @@
         <v>8032</v>
       </c>
       <c r="B8032">
-        <v>4.821047893082996</v>
+        <v>4.821047893082995</v>
       </c>
     </row>
     <row r="8033" spans="1:2">
@@ -64799,7 +64799,7 @@
         <v>8057</v>
       </c>
       <c r="B8057">
-        <v>1.837792799947951</v>
+        <v>1.83779279994795</v>
       </c>
     </row>
     <row r="8058" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>0.6780022636807027</v>
+        <v>0.6780022636807026</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>12.31592940739278</v>
+        <v>12.31592940739277</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65079,7 +65079,7 @@
         <v>8092</v>
       </c>
       <c r="B8092">
-        <v>1.276766910638538</v>
+        <v>1.276766910638537</v>
       </c>
     </row>
     <row r="8093" spans="1:2">
@@ -65311,7 +65311,7 @@
         <v>8121</v>
       </c>
       <c r="B8121">
-        <v>0.6386604074508037</v>
+        <v>0.6386604074508035</v>
       </c>
     </row>
     <row r="8122" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>0.744189427051981</v>
+        <v>0.7441894270519809</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65567,7 +65567,7 @@
         <v>8153</v>
       </c>
       <c r="B8153">
-        <v>0.8408237406297864</v>
+        <v>0.8408237406297863</v>
       </c>
     </row>
     <row r="8154" spans="1:2">
@@ -65631,7 +65631,7 @@
         <v>8161</v>
       </c>
       <c r="B8161">
-        <v>1.332907598804505</v>
+        <v>1.332907598804504</v>
       </c>
     </row>
     <row r="8162" spans="1:2">
@@ -65807,7 +65807,7 @@
         <v>8183</v>
       </c>
       <c r="B8183">
-        <v>2.097934376705308</v>
+        <v>2.097934376705307</v>
       </c>
     </row>
     <row r="8184" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>0.9932324035752323</v>
+        <v>0.9932324035752322</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>0.5102190940470825</v>
+        <v>0.5102190940470824</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>1.128467103655124</v>
+        <v>1.128467103655123</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>0.860538629400535</v>
+        <v>0.8605386294005349</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66263,7 +66263,7 @@
         <v>8240</v>
       </c>
       <c r="B8240">
-        <v>0.8697527828560476</v>
+        <v>0.8697527828560475</v>
       </c>
     </row>
     <row r="8241" spans="1:2">
@@ -66375,7 +66375,7 @@
         <v>8254</v>
       </c>
       <c r="B8254">
-        <v>2.996475527689059</v>
+        <v>2.996475527689058</v>
       </c>
     </row>
     <row r="8255" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>0.5892955216986867</v>
+        <v>0.5892955216986866</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>4.042035765217275</v>
+        <v>4.042035765217274</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>2.492979483268868</v>
+        <v>2.492979483268867</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>0.8957950753514948</v>
+        <v>0.8957950753514947</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>0.5708584226565014</v>
+        <v>0.5708584226565013</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>0.7397699157889678</v>
+        <v>0.7397699157889677</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>0.1570752330940506</v>
+        <v>0.1570752330940505</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>0.6332913460225279</v>
+        <v>0.6332913460225278</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67191,7 +67191,7 @@
         <v>8356</v>
       </c>
       <c r="B8356">
-        <v>0.7271561382849835</v>
+        <v>0.7271561382849834</v>
       </c>
     </row>
     <row r="8357" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>3.943329439396134</v>
+        <v>3.943329439396133</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67343,7 +67343,7 @@
         <v>8375</v>
       </c>
       <c r="B8375">
-        <v>2.945041560403993</v>
+        <v>2.945041560403992</v>
       </c>
     </row>
     <row r="8376" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>0.4893934660398073</v>
+        <v>0.4893934660398072</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>0.8918063785153139</v>
+        <v>0.8918063785153137</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>8.989045590716918</v>
+        <v>8.989045590716916</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67927,7 +67927,7 @@
         <v>8448</v>
       </c>
       <c r="B8448">
-        <v>2.746175276409951</v>
+        <v>2.74617527640995</v>
       </c>
     </row>
     <row r="8449" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>0.2937070028152404</v>
+        <v>0.2937070028152403</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68023,7 +68023,7 @@
         <v>8460</v>
       </c>
       <c r="B8460">
-        <v>0.5101516877081904</v>
+        <v>0.5101516877081903</v>
       </c>
     </row>
     <row r="8461" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>0.7236685929249136</v>
+        <v>0.7236685929249135</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>0.95793492767886</v>
+        <v>0.9579349276788598</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>4.359255857464315</v>
+        <v>4.359255857464314</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>0.2813232860766053</v>
+        <v>0.2813232860766052</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68479,7 +68479,7 @@
         <v>8517</v>
       </c>
       <c r="B8517">
-        <v>2.497665689177063</v>
+        <v>2.497665689177062</v>
       </c>
     </row>
     <row r="8518" spans="1:2">
@@ -68535,7 +68535,7 @@
         <v>8524</v>
       </c>
       <c r="B8524">
-        <v>0.5800168926146685</v>
+        <v>0.5800168926146684</v>
       </c>
     </row>
     <row r="8525" spans="1:2">
@@ -68719,7 +68719,7 @@
         <v>8547</v>
       </c>
       <c r="B8547">
-        <v>0.5387905896061771</v>
+        <v>0.538790589606177</v>
       </c>
     </row>
     <row r="8548" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>0.5562019400130476</v>
+        <v>0.5562019400130475</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68759,7 +68759,7 @@
         <v>8552</v>
       </c>
       <c r="B8552">
-        <v>0.8139286114118346</v>
+        <v>0.8139286114118345</v>
       </c>
     </row>
     <row r="8553" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>0.7864883700619729</v>
+        <v>0.7864883700619728</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>0.5180294372274074</v>
+        <v>0.5180294372274072</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>1.955416861314682</v>
+        <v>1.955416861314681</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69087,7 +69087,7 @@
         <v>8593</v>
       </c>
       <c r="B8593">
-        <v>0.8480977638093609</v>
+        <v>0.8480977638093607</v>
       </c>
     </row>
     <row r="8594" spans="1:2">
@@ -69119,7 +69119,7 @@
         <v>8597</v>
       </c>
       <c r="B8597">
-        <v>0.4051120967415776</v>
+        <v>0.4051120967415775</v>
       </c>
     </row>
     <row r="8598" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>0.7174525561949064</v>
+        <v>0.7174525561949063</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69295,7 +69295,7 @@
         <v>8619</v>
       </c>
       <c r="B8619">
-        <v>0.6162932257801699</v>
+        <v>0.6162932257801698</v>
       </c>
     </row>
     <row r="8620" spans="1:2">
@@ -69303,7 +69303,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>0.5547893376066999</v>
+        <v>0.5547893376066998</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -69327,7 +69327,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>0.8346077038997792</v>
+        <v>0.8346077038997791</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>0.8693805826369477</v>
+        <v>0.8693805826369476</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>0.6155458946315834</v>
+        <v>0.6155458946315833</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>4.748952417572306</v>
+        <v>4.748952417572305</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69831,7 +69831,7 @@
         <v>8686</v>
       </c>
       <c r="B8686">
-        <v>6.191829062213707</v>
+        <v>6.191829062213706</v>
       </c>
     </row>
     <row r="8687" spans="1:2">
@@ -69999,7 +69999,7 @@
         <v>8707</v>
       </c>
       <c r="B8707">
-        <v>3.551317618082718</v>
+        <v>3.551317618082717</v>
       </c>
     </row>
     <row r="8708" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>6.081458509053844</v>
+        <v>6.081458509053843</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70239,7 +70239,7 @@
         <v>8737</v>
       </c>
       <c r="B8737">
-        <v>2.318062964554231</v>
+        <v>2.31806296455423</v>
       </c>
     </row>
     <row r="8738" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>1.756987253168245</v>
+        <v>1.756987253168244</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70279,7 +70279,7 @@
         <v>8742</v>
       </c>
       <c r="B8742">
-        <v>1.269003458824399</v>
+        <v>1.269003458824398</v>
       </c>
     </row>
     <row r="8743" spans="1:2">
@@ -70423,7 +70423,7 @@
         <v>8760</v>
       </c>
       <c r="B8760">
-        <v>2.142150004308145</v>
+        <v>2.142150004308144</v>
       </c>
     </row>
   </sheetData>
